--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29A902-77A6-48F7-AB97-B1C9595FFB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A822D0C-541C-4AFB-9E30-EE443945F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -143,43 +143,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -215,12 +182,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -234,33 +223,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -271,6 +343,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:E81" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B4:E81" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3775C2E6-4032-4B99-A3A4-253F0516A22C}" name="Periodo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Produccion industrial (Índice total)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Tasa de desempleo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Tasa de inflación" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,9 +597,9 @@
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" customWidth="1"/>
     <col min="6" max="10" width="15.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
@@ -549,1094 +640,1094 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="7">
+      <c r="B5" s="11">
         <v>45413</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="12">
         <v>102.04519999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="12">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>3.27</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>45383</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>101.4901</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>3.9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>3.36</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>45352</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>102.71339999999999</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>3.8</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>3.48</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>45323</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>102.7705</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>3.9</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>3.15</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>45292</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>101.9293</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>3.7</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>3.09</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
         <v>45261</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>102.2236</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>3.7</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>3.35</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="7">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8">
         <v>45231</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>102.0599</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>3.7</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>3.14</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
         <v>45200</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>102.16540000000001</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="6">
         <v>3.8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>3.24</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="7">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8">
         <v>45170</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>103.2998</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>3.8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
         <v>45139</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>105.14579999999999</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>3.8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>3.67</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="7">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8">
         <v>45108</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>103.3639</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>3.5</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>3.18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
         <v>45078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>103.5035</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <v>3.6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>2.97</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="8">
         <v>45047</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>101.90900000000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>3.7</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>4.05</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
         <v>45017</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="6">
         <v>101.804</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>3.4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>4.93</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="7">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8">
         <v>44986</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>103.375</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>3.5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
         <v>44958</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>102.9074</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>3.6</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>6.04</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="7">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10">
         <v>44927</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>102.7552</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>3.4</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <v>6.41</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
         <v>44896</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>101.4473</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="14">
         <v>3.5</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="14">
         <v>6.45</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="7">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8">
         <v>44866</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>102.4157</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>3.6</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="5">
         <v>7.11</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9">
         <v>44835</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="6">
         <v>103.096</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="6">
         <v>3.6</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>7.75</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="7">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="8">
         <v>44805</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>103.3597</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>3.5</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="5">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9">
         <v>44774</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="6">
         <v>104.8052</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="6">
         <v>3.6</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>8.26</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="7">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8">
         <v>44743</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>103.0819</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>3.5</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>8.52</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9">
         <v>44713</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="6">
         <v>103.9316</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="6">
         <v>3.6</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>9.06</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="7">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="8">
         <v>44682</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>101.8094</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>3.6</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>8.58</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9">
         <v>44652</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="6">
         <v>100.8575</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="6">
         <v>3.7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>8.26</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="7">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8">
         <v>44621</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>103.07170000000001</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="5">
         <v>3.6</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9">
         <v>44593</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="6">
         <v>102.0813</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>3.8</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>7.87</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="7">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10">
         <v>44562</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>101.3314</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>4</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>7.48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
         <v>44531</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>100.45659999999999</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="14">
         <v>3.9</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <v>7.04</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="7">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8">
         <v>44501</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>100.55159999999999</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="5">
         <v>6.81</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9">
         <v>44470</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="6">
         <v>100.11499999999999</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="6">
         <v>4.5</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>6.22</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="7">
+    <row r="37" spans="2:5" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="8">
         <v>44440</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>98.762600000000006</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="5">
         <v>4.7</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="5">
         <v>5.39</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9">
         <v>44409</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="6">
         <v>101.87739999999999</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="6">
         <v>5.25</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="7">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8">
         <v>44378</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>100.0585</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="5">
         <v>5.4</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="5">
         <v>5.37</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="9">
         <v>44348</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="6">
         <v>100.75060000000001</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="6">
         <v>5.9</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="6">
         <v>5.39</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="7">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="8">
         <v>44317</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="5">
         <v>98.109300000000005</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="5">
         <v>5.8</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="5">
         <v>4.99</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="9">
         <v>44287</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="6">
         <v>96.962100000000007</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="6">
         <v>6.1</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="6">
         <v>4.16</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="7">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8">
         <v>44256</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>98.557100000000005</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="5">
         <v>6.1</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>2.62</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="9">
         <v>44228</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="6">
         <v>95.852900000000005</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="6">
         <v>6.2</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="6">
         <v>1.68</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="7">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="10">
         <v>44197</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>98.886200000000002</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>6.4</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
         <v>44166</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="14">
         <v>97.720299999999995</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="14">
         <v>6.7</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <v>1.36</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="7">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="8">
         <v>44136</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>96.175799999999995</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="5">
         <v>6.7</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="5">
         <v>1.17</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="9">
         <v>44105</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="6">
         <v>96.392399999999995</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="6">
         <v>6.8</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="6">
         <v>1.18</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="7">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="8">
         <v>44075</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>95.647999999999996</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <v>7.8</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="5">
         <v>1.37</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="9">
         <v>44044</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="6">
         <v>98.124899999999997</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="6">
         <v>8.4</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="6">
         <v>1.31</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="7">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="8">
         <v>44013</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>95.046499999999995</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="5">
         <v>0.99</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="9">
         <v>43983</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="6">
         <v>92.928600000000003</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="6">
         <v>11</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="7">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="8">
         <v>43952</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>84.941900000000004</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="5">
         <v>13.2</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9">
         <v>43922</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="6">
         <v>82.638900000000007</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="6">
         <v>14.8</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="6">
         <v>0.33</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="7">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="8">
         <v>43891</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>97.956000000000003</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="5">
         <v>1.54</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="9">
         <v>43862</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="6">
         <v>102.0027</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="6">
         <v>3.5</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="6">
         <v>2.33</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="7">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="10">
         <v>43831</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>101.2427</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>3.6</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
         <v>43800</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="14">
         <v>101.7191</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="14">
         <v>3.6</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="14">
         <v>2.29</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="7">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="8">
         <v>43770</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <v>101.5253</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="5">
         <v>3.6</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="5">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="9">
         <v>43739</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="6">
         <v>101.36490000000001</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="6">
         <v>3.6</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="6">
         <v>1.76</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="7">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8">
         <v>43709</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="5">
         <v>102.9937</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="5">
         <v>3.5</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="5">
         <v>1.71</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="9">
         <v>43678</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="6">
         <v>104.8749</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="6">
         <v>3.6</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="6">
         <v>1.75</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="7">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="8">
         <v>43647</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>101.9945</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="5">
         <v>3.7</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="5">
         <v>1.81</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9">
         <v>43617</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="6">
         <v>103.92700000000001</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="6">
         <v>3.6</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="6">
         <v>1.65</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="7">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8">
         <v>43586</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="5">
         <v>101.1883</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="5">
         <v>3.6</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="5">
         <v>1.79</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="9">
         <v>43556</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="6">
         <v>100.631</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="6">
         <v>3.7</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="7">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="8">
         <v>43525</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="5">
         <v>103.0488</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="5">
         <v>3.8</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="5">
         <v>1.86</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="9">
         <v>43497</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="6">
         <v>102.7354</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>3.8</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="6">
         <v>1.52</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="7">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="10">
         <v>43466</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>103.1493</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>4</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="7">
         <v>1.55</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="9">
         <v>43435</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="6">
         <v>103.6027</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="6">
         <v>3.9</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="6">
         <v>1.91</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="7">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="8">
         <v>43405</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="5">
         <v>103.21129999999999</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="5">
         <v>3.8</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="9">
         <v>43374</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="6">
         <v>103.49120000000001</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="6">
         <v>3.8</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="6">
         <v>2.52</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="7">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="8">
         <v>43344</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <v>104.57080000000001</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="5">
         <v>3.7</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="5">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="9">
         <v>43313</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="6">
         <v>106.0834</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="6">
         <v>3.8</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="6">
         <v>2.7</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="7">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8">
         <v>43282</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="5">
         <v>103.3622</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="5">
         <v>3.8</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="5">
         <v>2.95</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="9">
         <v>43252</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="6">
         <v>104.5796</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="6">
         <v>4</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="7">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8">
         <v>43221</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="5">
         <v>101.2677</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="5">
         <v>3.8</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="5">
         <v>2.8</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="78" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="9">
         <v>43191</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="6">
         <v>101.85639999999999</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="6">
         <v>4</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="6">
         <v>2.46</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="7">
+    <row r="79" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="8">
         <v>43160</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="5">
         <v>102.4751</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="5">
         <v>4</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="5">
         <v>2.36</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="80" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="9">
         <v>43132</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="6">
         <v>101.74039999999999</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="6">
         <v>2.21</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="8">
         <v>43101</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="5">
         <v>101.56059999999999</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="5">
         <v>4</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="5">
         <v>2.0699999999999998</v>
       </c>
     </row>
@@ -1678,16 +1769,16 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1696,5 +1787,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F00F15-3E3D-4B0E-878A-3D8AA935DA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E3BE2-80D3-47F5-9E95-B670A2D7FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -276,13 +276,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -292,6 +285,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F84" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F84" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B4:F84" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
@@ -359,8 +359,8 @@
     <tableColumn id="1" xr3:uid="{3775C2E6-4032-4B99-A3A4-253F0516A22C}" name="Año" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8243A462-5C5C-481C-AEC2-0E0CEA614E80}" name="Mes" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Produccion industrial (Índice total)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Tasa de desempleo" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Tasa de inflación" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Tasa de desempleo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Tasa de inflación" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,10 +662,10 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>2024</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>8</v>
       </c>
       <c r="D5" s="6">
@@ -679,10 +679,10 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>7</v>
       </c>
       <c r="D6" s="5">
@@ -696,10 +696,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
       <c r="D7" s="6">
@@ -713,10 +713,10 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>5</v>
       </c>
       <c r="D8" s="5">
@@ -730,10 +730,10 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>4</v>
       </c>
       <c r="D9" s="6">
@@ -747,10 +747,10 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>3</v>
       </c>
       <c r="D10" s="5">
@@ -764,10 +764,10 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>2</v>
       </c>
       <c r="D11" s="6">
@@ -781,10 +781,10 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="7">
@@ -798,10 +798,10 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>2023</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>12</v>
       </c>
       <c r="D13" s="8">
@@ -815,10 +815,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>2023</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>11</v>
       </c>
       <c r="D14" s="5">
@@ -832,10 +832,10 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>2023</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>10</v>
       </c>
       <c r="D15" s="6">
@@ -849,10 +849,10 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>9</v>
       </c>
       <c r="D16" s="5">
@@ -866,10 +866,10 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>8</v>
       </c>
       <c r="D17" s="6">
@@ -883,10 +883,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>7</v>
       </c>
       <c r="D18" s="5">
@@ -900,10 +900,10 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>6</v>
       </c>
       <c r="D19" s="6">
@@ -917,10 +917,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>5</v>
       </c>
       <c r="D20" s="5">
@@ -934,10 +934,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>4</v>
       </c>
       <c r="D21" s="6">
@@ -951,10 +951,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>3</v>
       </c>
       <c r="D22" s="5">
@@ -968,14 +968,14 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>2</v>
       </c>
       <c r="D23" s="6">
-        <v>102.9074</v>
+        <v>102.9141</v>
       </c>
       <c r="E23" s="6">
         <v>3.6</v>
@@ -985,10 +985,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>1</v>
       </c>
       <c r="D24" s="7">
@@ -1002,14 +1002,14 @@
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>2022</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>12</v>
       </c>
       <c r="D25" s="8">
-        <v>101.4473</v>
+        <v>101.66070000000001</v>
       </c>
       <c r="E25" s="8">
         <v>3.5</v>
@@ -1019,14 +1019,14 @@
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>2022</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>11</v>
       </c>
       <c r="D26" s="5">
-        <v>102.4157</v>
+        <v>102.4696</v>
       </c>
       <c r="E26" s="5">
         <v>3.6</v>
@@ -1036,14 +1036,14 @@
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>2022</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>10</v>
       </c>
       <c r="D27" s="6">
-        <v>103.096</v>
+        <v>103.0849</v>
       </c>
       <c r="E27" s="6">
         <v>3.6</v>
@@ -1053,14 +1053,14 @@
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>9</v>
       </c>
       <c r="D28" s="5">
-        <v>103.3597</v>
+        <v>103.4627</v>
       </c>
       <c r="E28" s="5">
         <v>3.5</v>
@@ -1070,14 +1070,14 @@
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>8</v>
       </c>
       <c r="D29" s="6">
-        <v>104.8052</v>
+        <v>104.8612</v>
       </c>
       <c r="E29" s="6">
         <v>3.6</v>
@@ -1087,14 +1087,14 @@
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>7</v>
       </c>
       <c r="D30" s="5">
-        <v>103.0819</v>
+        <v>103.34439999999999</v>
       </c>
       <c r="E30" s="5">
         <v>3.5</v>
@@ -1104,14 +1104,14 @@
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>6</v>
       </c>
       <c r="D31" s="6">
-        <v>103.9316</v>
+        <v>103.92619999999999</v>
       </c>
       <c r="E31" s="6">
         <v>3.6</v>
@@ -1121,14 +1121,14 @@
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>5</v>
       </c>
       <c r="D32" s="5">
-        <v>101.8094</v>
+        <v>101.9909</v>
       </c>
       <c r="E32" s="5">
         <v>3.6</v>
@@ -1138,14 +1138,14 @@
       </c>
     </row>
     <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>4</v>
       </c>
       <c r="D33" s="6">
-        <v>100.8575</v>
+        <v>100.8862</v>
       </c>
       <c r="E33" s="6">
         <v>3.7</v>
@@ -1155,14 +1155,14 @@
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>3</v>
       </c>
       <c r="D34" s="5">
-        <v>103.07170000000001</v>
+        <v>103.2771</v>
       </c>
       <c r="E34" s="5">
         <v>3.6</v>
@@ -1172,14 +1172,14 @@
       </c>
     </row>
     <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>2</v>
       </c>
       <c r="D35" s="6">
-        <v>102.0813</v>
+        <v>102.0634</v>
       </c>
       <c r="E35" s="6">
         <v>3.8</v>
@@ -1189,14 +1189,14 @@
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="14">
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>101.3314</v>
+        <v>101.5271</v>
       </c>
       <c r="E36" s="7">
         <v>4</v>
@@ -1206,14 +1206,14 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>2021</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>12</v>
       </c>
       <c r="D37" s="8">
-        <v>100.45659999999999</v>
+        <v>100.6437</v>
       </c>
       <c r="E37" s="8">
         <v>3.9</v>
@@ -1223,14 +1223,14 @@
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>2021</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>11</v>
       </c>
       <c r="D38" s="5">
-        <v>100.55159999999999</v>
+        <v>100.6087</v>
       </c>
       <c r="E38" s="5">
         <v>4.0999999999999996</v>
@@ -1240,14 +1240,14 @@
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>2021</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>10</v>
       </c>
       <c r="D39" s="6">
-        <v>100.11499999999999</v>
+        <v>100.1228</v>
       </c>
       <c r="E39" s="6">
         <v>4.5</v>
@@ -1257,14 +1257,14 @@
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>9</v>
       </c>
       <c r="D40" s="5">
-        <v>98.762600000000006</v>
+        <v>98.75</v>
       </c>
       <c r="E40" s="5">
         <v>4.7</v>
@@ -1274,14 +1274,14 @@
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>8</v>
       </c>
       <c r="D41" s="6">
-        <v>101.87739999999999</v>
+        <v>101.89190000000001</v>
       </c>
       <c r="E41" s="6">
         <v>5.0999999999999996</v>
@@ -1291,14 +1291,14 @@
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>7</v>
       </c>
       <c r="D42" s="5">
-        <v>100.0585</v>
+        <v>100.1131</v>
       </c>
       <c r="E42" s="5">
         <v>5.4</v>
@@ -1308,14 +1308,14 @@
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>100.75060000000001</v>
+        <v>100.80200000000001</v>
       </c>
       <c r="E43" s="6">
         <v>5.9</v>
@@ -1325,14 +1325,14 @@
       </c>
     </row>
     <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>5</v>
       </c>
       <c r="D44" s="5">
-        <v>98.109300000000005</v>
+        <v>98.150300000000001</v>
       </c>
       <c r="E44" s="5">
         <v>5.8</v>
@@ -1342,14 +1342,14 @@
       </c>
     </row>
     <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>4</v>
       </c>
       <c r="D45" s="6">
-        <v>96.962100000000007</v>
+        <v>96.961500000000001</v>
       </c>
       <c r="E45" s="6">
         <v>6.1</v>
@@ -1359,14 +1359,14 @@
       </c>
     </row>
     <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>3</v>
       </c>
       <c r="D46" s="5">
-        <v>98.557100000000005</v>
+        <v>98.701999999999998</v>
       </c>
       <c r="E46" s="5">
         <v>6.1</v>
@@ -1376,14 +1376,14 @@
       </c>
     </row>
     <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>2</v>
       </c>
       <c r="D47" s="6">
-        <v>95.852900000000005</v>
+        <v>95.888599999999997</v>
       </c>
       <c r="E47" s="6">
         <v>6.2</v>
@@ -1393,14 +1393,14 @@
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>98.886200000000002</v>
+        <v>98.966499999999996</v>
       </c>
       <c r="E48" s="7">
         <v>6.4</v>
@@ -1410,14 +1410,14 @@
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>2020</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>12</v>
       </c>
       <c r="D49" s="8">
-        <v>97.720299999999995</v>
+        <v>97.869399999999999</v>
       </c>
       <c r="E49" s="8">
         <v>6.7</v>
@@ -1427,14 +1427,14 @@
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>2020</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>11</v>
       </c>
       <c r="D50" s="5">
-        <v>96.175799999999995</v>
+        <v>96.284700000000001</v>
       </c>
       <c r="E50" s="5">
         <v>6.7</v>
@@ -1444,14 +1444,14 @@
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>2020</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>10</v>
       </c>
       <c r="D51" s="6">
-        <v>96.392399999999995</v>
+        <v>96.455699999999993</v>
       </c>
       <c r="E51" s="6">
         <v>6.8</v>
@@ -1461,14 +1461,14 @@
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>9</v>
       </c>
       <c r="D52" s="5">
-        <v>95.647999999999996</v>
+        <v>95.703000000000003</v>
       </c>
       <c r="E52" s="5">
         <v>7.8</v>
@@ -1478,14 +1478,14 @@
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>8</v>
       </c>
       <c r="D53" s="6">
-        <v>98.124899999999997</v>
+        <v>98.2239</v>
       </c>
       <c r="E53" s="6">
         <v>8.4</v>
@@ -1495,14 +1495,14 @@
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>7</v>
       </c>
       <c r="D54" s="5">
-        <v>95.046499999999995</v>
+        <v>95.093900000000005</v>
       </c>
       <c r="E54" s="5">
         <v>10.199999999999999</v>
@@ -1512,14 +1512,14 @@
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
         <v>6</v>
       </c>
       <c r="D55" s="6">
-        <v>92.928600000000003</v>
+        <v>92.993700000000004</v>
       </c>
       <c r="E55" s="6">
         <v>11</v>
@@ -1529,14 +1529,14 @@
       </c>
     </row>
     <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <v>5</v>
       </c>
       <c r="D56" s="5">
-        <v>84.941900000000004</v>
+        <v>84.979799999999997</v>
       </c>
       <c r="E56" s="5">
         <v>13.2</v>
@@ -1546,14 +1546,14 @@
       </c>
     </row>
     <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>4</v>
       </c>
       <c r="D57" s="6">
-        <v>82.638900000000007</v>
+        <v>82.676699999999997</v>
       </c>
       <c r="E57" s="6">
         <v>14.8</v>
@@ -1563,14 +1563,14 @@
       </c>
     </row>
     <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="13">
         <v>3</v>
       </c>
       <c r="D58" s="5">
-        <v>97.956000000000003</v>
+        <v>97.961399999999998</v>
       </c>
       <c r="E58" s="5">
         <v>4.4000000000000004</v>
@@ -1580,14 +1580,14 @@
       </c>
     </row>
     <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="12">
         <v>2</v>
       </c>
       <c r="D59" s="6">
-        <v>102.0027</v>
+        <v>101.9971</v>
       </c>
       <c r="E59" s="6">
         <v>3.5</v>
@@ -1597,14 +1597,14 @@
       </c>
     </row>
     <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="14">
         <v>1</v>
       </c>
       <c r="D60" s="7">
-        <v>101.2427</v>
+        <v>101.2492</v>
       </c>
       <c r="E60" s="7">
         <v>3.6</v>
@@ -1614,10 +1614,10 @@
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>2019</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="15">
         <v>12</v>
       </c>
       <c r="D61" s="8">
@@ -1631,10 +1631,10 @@
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>2019</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <v>11</v>
       </c>
       <c r="D62" s="5">
@@ -1648,10 +1648,10 @@
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>2019</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>10</v>
       </c>
       <c r="D63" s="6">
@@ -1665,10 +1665,10 @@
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="13">
         <v>9</v>
       </c>
       <c r="D64" s="5">
@@ -1682,10 +1682,10 @@
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <v>8</v>
       </c>
       <c r="D65" s="6">
@@ -1699,10 +1699,10 @@
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <v>7</v>
       </c>
       <c r="D66" s="5">
@@ -1716,10 +1716,10 @@
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>6</v>
       </c>
       <c r="D67" s="6">
@@ -1733,10 +1733,10 @@
       </c>
     </row>
     <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <v>5</v>
       </c>
       <c r="D68" s="5">
@@ -1750,10 +1750,10 @@
       </c>
     </row>
     <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>4</v>
       </c>
       <c r="D69" s="6">
@@ -1767,10 +1767,10 @@
       </c>
     </row>
     <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="13">
         <v>3</v>
       </c>
       <c r="D70" s="5">
@@ -1784,10 +1784,10 @@
       </c>
     </row>
     <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <v>2</v>
       </c>
       <c r="D71" s="6">
@@ -1801,10 +1801,10 @@
       </c>
     </row>
     <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="14">
         <v>1</v>
       </c>
       <c r="D72" s="7">
@@ -1818,10 +1818,10 @@
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13">
+      <c r="B73" s="12">
         <v>2018</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="12">
         <v>12</v>
       </c>
       <c r="D73" s="6">
@@ -1835,10 +1835,10 @@
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="13">
         <v>11</v>
       </c>
       <c r="D74" s="5">
@@ -1852,10 +1852,10 @@
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+      <c r="B75" s="12">
         <v>2018</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="12">
         <v>10</v>
       </c>
       <c r="D75" s="6">
@@ -1869,10 +1869,10 @@
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="13">
         <v>9</v>
       </c>
       <c r="D76" s="5">
@@ -1886,10 +1886,10 @@
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="12">
         <v>8</v>
       </c>
       <c r="D77" s="6">
@@ -1903,10 +1903,10 @@
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="13">
         <v>7</v>
       </c>
       <c r="D78" s="5">
@@ -1920,10 +1920,10 @@
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="12">
         <v>6</v>
       </c>
       <c r="D79" s="6">
@@ -1937,10 +1937,10 @@
       </c>
     </row>
     <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="13">
         <v>5</v>
       </c>
       <c r="D80" s="5">
@@ -1954,10 +1954,10 @@
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="12">
         <v>4</v>
       </c>
       <c r="D81" s="6">
@@ -1971,10 +1971,10 @@
       </c>
     </row>
     <row r="82" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="13">
         <v>3</v>
       </c>
       <c r="D82" s="5">
@@ -1990,10 +1990,10 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="12">
         <v>2</v>
       </c>
       <c r="D83" s="6">
@@ -2009,10 +2009,10 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="13">
         <v>1</v>
       </c>
       <c r="D84" s="5">
@@ -2070,12 +2070,12 @@
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5E3BE2-80D3-47F5-9E95-B670A2D7FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162330C6-BF29-433A-96BE-CF47D4934225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Produccion industrial (Índice total)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -50,21 +47,9 @@
     <t>Indicadores internacionales de EE.UU.</t>
   </si>
   <si>
-    <t>Nota: La produccion industrial, Serie original base (2007=100).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
-  </si>
-  <si>
     <t>Fuente: Para producción industrial: Cálculos propios con base en datos proporcionados por la Junta de Gobernadores del Sistema de la Reserva Federal de los EE.UU. En: www.federalreserve.gov.</t>
   </si>
   <si>
-    <t xml:space="preserve">                   Para tasa de desempleo: Oficina de Estadísticas Laborales de EE.UU. Tasa de desempleo. En: www.bls.gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   Para tasa de inflación: IPC Inflación Estados Unidos. En: es.inflation.eu.</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
@@ -72,6 +57,57 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Nota: La producción industrial, Serie original base (2007=100).</t>
+  </si>
+  <si>
+    <t>Producción industrial (Índice total)</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para tasa de inflación: IPC Inflación Estados Unidos. En: es.inflation.eu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Para tasa de desempleo: Oficina de Estadísticas Laborales de EE.UU. Tasa de desempleo. En: www.bls.gov.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -250,6 +286,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -358,9 +400,9 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3775C2E6-4032-4B99-A3A4-253F0516A22C}" name="Año" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{8243A462-5C5C-481C-AEC2-0E0CEA614E80}" name="Mes" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Produccion industrial (Índice total)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Tasa de desempleo" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Tasa de inflación" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3D2C093A-109B-4602-897A-FD78F861AEA9}" name="Producción industrial (Índice total)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AD6FA560-1B36-4692-8FB4-D7F8F6D08C11}" name="Tasa de desempleo" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{0C04FC96-C062-446D-9575-8BB164FFAC4F}" name="Tasa de inflación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,7 +654,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -646,27 +688,27 @@
     </row>
     <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="12">
         <v>2024</v>
       </c>
-      <c r="C5" s="12">
-        <v>8</v>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="6">
         <v>105.2869</v>
@@ -682,8 +724,8 @@
       <c r="B6" s="13">
         <v>2024</v>
       </c>
-      <c r="C6" s="13">
-        <v>7</v>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="5">
         <v>102.7745</v>
@@ -699,8 +741,8 @@
       <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="12">
-        <v>6</v>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6">
         <v>104.48350000000001</v>
@@ -716,8 +758,8 @@
       <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="13">
-        <v>5</v>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>102.1207</v>
@@ -733,8 +775,8 @@
       <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="12">
-        <v>4</v>
+      <c r="C9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="6">
         <v>101.5078</v>
@@ -750,8 +792,8 @@
       <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="13">
-        <v>3</v>
+      <c r="C10" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D10" s="5">
         <v>102.7146</v>
@@ -767,8 +809,8 @@
       <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="12">
-        <v>2</v>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="6">
         <v>102.74769999999999</v>
@@ -784,8 +826,8 @@
       <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="14">
-        <v>1</v>
+      <c r="C12" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="7">
         <v>101.7062</v>
@@ -801,8 +843,8 @@
       <c r="B13" s="15">
         <v>2023</v>
       </c>
-      <c r="C13" s="15">
-        <v>12</v>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="8">
         <v>102.2236</v>
@@ -818,8 +860,8 @@
       <c r="B14" s="13">
         <v>2023</v>
       </c>
-      <c r="C14" s="13">
-        <v>11</v>
+      <c r="C14" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="5">
         <v>102.0599</v>
@@ -835,8 +877,8 @@
       <c r="B15" s="12">
         <v>2023</v>
       </c>
-      <c r="C15" s="12">
-        <v>10</v>
+      <c r="C15" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="6">
         <v>102.16540000000001</v>
@@ -852,8 +894,8 @@
       <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C16" s="13">
-        <v>9</v>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="5">
         <v>103.2998</v>
@@ -869,8 +911,8 @@
       <c r="B17" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="12">
-        <v>8</v>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="6">
         <v>105.14579999999999</v>
@@ -886,8 +928,8 @@
       <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="13">
-        <v>7</v>
+      <c r="C18" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="5">
         <v>103.3639</v>
@@ -903,8 +945,8 @@
       <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="12">
-        <v>6</v>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>103.5035</v>
@@ -920,8 +962,8 @@
       <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="13">
-        <v>5</v>
+      <c r="C20" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="5">
         <v>101.90900000000001</v>
@@ -937,8 +979,8 @@
       <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="12">
-        <v>4</v>
+      <c r="C21" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D21" s="6">
         <v>101.804</v>
@@ -954,8 +996,8 @@
       <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="13">
-        <v>3</v>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="5">
         <v>103.375</v>
@@ -971,8 +1013,8 @@
       <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="12">
-        <v>2</v>
+      <c r="C23" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D23" s="6">
         <v>102.9141</v>
@@ -988,8 +1030,8 @@
       <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14">
-        <v>1</v>
+      <c r="C24" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="7">
         <v>102.7552</v>
@@ -1005,8 +1047,8 @@
       <c r="B25" s="15">
         <v>2022</v>
       </c>
-      <c r="C25" s="15">
-        <v>12</v>
+      <c r="C25" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="8">
         <v>101.66070000000001</v>
@@ -1022,8 +1064,8 @@
       <c r="B26" s="13">
         <v>2022</v>
       </c>
-      <c r="C26" s="13">
-        <v>11</v>
+      <c r="C26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="5">
         <v>102.4696</v>
@@ -1039,8 +1081,8 @@
       <c r="B27" s="12">
         <v>2022</v>
       </c>
-      <c r="C27" s="12">
-        <v>10</v>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="6">
         <v>103.0849</v>
@@ -1056,8 +1098,8 @@
       <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C28" s="13">
-        <v>9</v>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="5">
         <v>103.4627</v>
@@ -1073,8 +1115,8 @@
       <c r="B29" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="12">
-        <v>8</v>
+      <c r="C29" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>104.8612</v>
@@ -1090,8 +1132,8 @@
       <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="13">
-        <v>7</v>
+      <c r="C30" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="5">
         <v>103.34439999999999</v>
@@ -1107,8 +1149,8 @@
       <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="12">
-        <v>6</v>
+      <c r="C31" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>103.92619999999999</v>
@@ -1124,8 +1166,8 @@
       <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="13">
-        <v>5</v>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="5">
         <v>101.9909</v>
@@ -1141,8 +1183,8 @@
       <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="12">
-        <v>4</v>
+      <c r="C33" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="6">
         <v>100.8862</v>
@@ -1158,8 +1200,8 @@
       <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="13">
-        <v>3</v>
+      <c r="C34" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="5">
         <v>103.2771</v>
@@ -1175,8 +1217,8 @@
       <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="12">
-        <v>2</v>
+      <c r="C35" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D35" s="6">
         <v>102.0634</v>
@@ -1192,8 +1234,8 @@
       <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14">
-        <v>1</v>
+      <c r="C36" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="7">
         <v>101.5271</v>
@@ -1209,8 +1251,8 @@
       <c r="B37" s="15">
         <v>2021</v>
       </c>
-      <c r="C37" s="15">
-        <v>12</v>
+      <c r="C37" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="8">
         <v>100.6437</v>
@@ -1226,8 +1268,8 @@
       <c r="B38" s="13">
         <v>2021</v>
       </c>
-      <c r="C38" s="13">
-        <v>11</v>
+      <c r="C38" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="5">
         <v>100.6087</v>
@@ -1243,8 +1285,8 @@
       <c r="B39" s="12">
         <v>2021</v>
       </c>
-      <c r="C39" s="12">
-        <v>10</v>
+      <c r="C39" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D39" s="6">
         <v>100.1228</v>
@@ -1260,8 +1302,8 @@
       <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C40" s="13">
-        <v>9</v>
+      <c r="C40" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>98.75</v>
@@ -1277,8 +1319,8 @@
       <c r="B41" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="12">
-        <v>8</v>
+      <c r="C41" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D41" s="6">
         <v>101.89190000000001</v>
@@ -1294,8 +1336,8 @@
       <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="13">
-        <v>7</v>
+      <c r="C42" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="5">
         <v>100.1131</v>
@@ -1311,8 +1353,8 @@
       <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="12">
-        <v>6</v>
+      <c r="C43" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D43" s="6">
         <v>100.80200000000001</v>
@@ -1328,8 +1370,8 @@
       <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="13">
-        <v>5</v>
+      <c r="C44" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D44" s="5">
         <v>98.150300000000001</v>
@@ -1345,8 +1387,8 @@
       <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="12">
-        <v>4</v>
+      <c r="C45" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D45" s="6">
         <v>96.961500000000001</v>
@@ -1362,8 +1404,8 @@
       <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="13">
-        <v>3</v>
+      <c r="C46" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D46" s="5">
         <v>98.701999999999998</v>
@@ -1379,8 +1421,8 @@
       <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="12">
-        <v>2</v>
+      <c r="C47" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="6">
         <v>95.888599999999997</v>
@@ -1396,8 +1438,8 @@
       <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14">
-        <v>1</v>
+      <c r="C48" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D48" s="7">
         <v>98.966499999999996</v>
@@ -1413,8 +1455,8 @@
       <c r="B49" s="15">
         <v>2020</v>
       </c>
-      <c r="C49" s="15">
-        <v>12</v>
+      <c r="C49" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D49" s="8">
         <v>97.869399999999999</v>
@@ -1430,8 +1472,8 @@
       <c r="B50" s="13">
         <v>2020</v>
       </c>
-      <c r="C50" s="13">
-        <v>11</v>
+      <c r="C50" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D50" s="5">
         <v>96.284700000000001</v>
@@ -1447,8 +1489,8 @@
       <c r="B51" s="12">
         <v>2020</v>
       </c>
-      <c r="C51" s="12">
-        <v>10</v>
+      <c r="C51" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D51" s="6">
         <v>96.455699999999993</v>
@@ -1464,8 +1506,8 @@
       <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C52" s="13">
-        <v>9</v>
+      <c r="C52" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D52" s="5">
         <v>95.703000000000003</v>
@@ -1481,8 +1523,8 @@
       <c r="B53" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="12">
-        <v>8</v>
+      <c r="C53" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D53" s="6">
         <v>98.2239</v>
@@ -1498,8 +1540,8 @@
       <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="13">
-        <v>7</v>
+      <c r="C54" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D54" s="5">
         <v>95.093900000000005</v>
@@ -1515,8 +1557,8 @@
       <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="12">
-        <v>6</v>
+      <c r="C55" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D55" s="6">
         <v>92.993700000000004</v>
@@ -1532,8 +1574,8 @@
       <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="13">
-        <v>5</v>
+      <c r="C56" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="5">
         <v>84.979799999999997</v>
@@ -1549,8 +1591,8 @@
       <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="12">
-        <v>4</v>
+      <c r="C57" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="6">
         <v>82.676699999999997</v>
@@ -1566,8 +1608,8 @@
       <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="13">
-        <v>3</v>
+      <c r="C58" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D58" s="5">
         <v>97.961399999999998</v>
@@ -1583,8 +1625,8 @@
       <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="12">
-        <v>2</v>
+      <c r="C59" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D59" s="6">
         <v>101.9971</v>
@@ -1600,8 +1642,8 @@
       <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14">
-        <v>1</v>
+      <c r="C60" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D60" s="7">
         <v>101.2492</v>
@@ -1617,8 +1659,8 @@
       <c r="B61" s="15">
         <v>2019</v>
       </c>
-      <c r="C61" s="15">
-        <v>12</v>
+      <c r="C61" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D61" s="8">
         <v>101.7191</v>
@@ -1634,8 +1676,8 @@
       <c r="B62" s="13">
         <v>2019</v>
       </c>
-      <c r="C62" s="13">
-        <v>11</v>
+      <c r="C62" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D62" s="5">
         <v>101.5253</v>
@@ -1651,8 +1693,8 @@
       <c r="B63" s="12">
         <v>2019</v>
       </c>
-      <c r="C63" s="12">
-        <v>10</v>
+      <c r="C63" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D63" s="6">
         <v>101.36490000000001</v>
@@ -1668,8 +1710,8 @@
       <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C64" s="13">
-        <v>9</v>
+      <c r="C64" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D64" s="5">
         <v>102.9937</v>
@@ -1685,8 +1727,8 @@
       <c r="B65" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="12">
-        <v>8</v>
+      <c r="C65" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="6">
         <v>104.8749</v>
@@ -1702,8 +1744,8 @@
       <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="13">
-        <v>7</v>
+      <c r="C66" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D66" s="5">
         <v>101.9945</v>
@@ -1719,8 +1761,8 @@
       <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="12">
-        <v>6</v>
+      <c r="C67" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D67" s="6">
         <v>103.92700000000001</v>
@@ -1736,8 +1778,8 @@
       <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="13">
-        <v>5</v>
+      <c r="C68" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D68" s="5">
         <v>101.1883</v>
@@ -1753,8 +1795,8 @@
       <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="12">
-        <v>4</v>
+      <c r="C69" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="6">
         <v>100.631</v>
@@ -1770,8 +1812,8 @@
       <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="13">
-        <v>3</v>
+      <c r="C70" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D70" s="5">
         <v>103.0488</v>
@@ -1787,8 +1829,8 @@
       <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="12">
-        <v>2</v>
+      <c r="C71" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D71" s="6">
         <v>102.7354</v>
@@ -1804,8 +1846,8 @@
       <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14">
-        <v>1</v>
+      <c r="C72" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="D72" s="7">
         <v>103.1493</v>
@@ -1821,8 +1863,8 @@
       <c r="B73" s="12">
         <v>2018</v>
       </c>
-      <c r="C73" s="12">
-        <v>12</v>
+      <c r="C73" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D73" s="6">
         <v>103.6027</v>
@@ -1838,8 +1880,8 @@
       <c r="B74" s="13">
         <v>2018</v>
       </c>
-      <c r="C74" s="13">
-        <v>11</v>
+      <c r="C74" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D74" s="5">
         <v>103.21129999999999</v>
@@ -1855,8 +1897,8 @@
       <c r="B75" s="12">
         <v>2018</v>
       </c>
-      <c r="C75" s="12">
-        <v>10</v>
+      <c r="C75" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="D75" s="6">
         <v>103.49120000000001</v>
@@ -1872,8 +1914,8 @@
       <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C76" s="13">
-        <v>9</v>
+      <c r="C76" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D76" s="5">
         <v>104.57080000000001</v>
@@ -1889,8 +1931,8 @@
       <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C77" s="12">
-        <v>8</v>
+      <c r="C77" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="D77" s="6">
         <v>106.0834</v>
@@ -1906,8 +1948,8 @@
       <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="13">
-        <v>7</v>
+      <c r="C78" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D78" s="5">
         <v>103.3622</v>
@@ -1923,8 +1965,8 @@
       <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C79" s="12">
-        <v>6</v>
+      <c r="C79" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D79" s="6">
         <v>104.5796</v>
@@ -1940,8 +1982,8 @@
       <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13">
-        <v>5</v>
+      <c r="C80" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D80" s="5">
         <v>101.2677</v>
@@ -1957,8 +1999,8 @@
       <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C81" s="12">
-        <v>4</v>
+      <c r="C81" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="D81" s="6">
         <v>101.85639999999999</v>
@@ -1974,8 +2016,8 @@
       <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13">
-        <v>3</v>
+      <c r="C82" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D82" s="5">
         <v>102.4751</v>
@@ -1993,8 +2035,8 @@
       <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C83" s="12">
-        <v>2</v>
+      <c r="C83" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D83" s="6">
         <v>101.74039999999999</v>
@@ -2012,8 +2054,8 @@
       <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13">
-        <v>1</v>
+      <c r="C84" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="D84" s="5">
         <v>101.56059999999999</v>
@@ -2030,7 +2072,7 @@
     </row>
     <row r="85" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -2038,21 +2080,21 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B87" s="2" t="s">
-        <v>5</v>
+      <c r="B87" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
@@ -2060,13 +2102,13 @@
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>7</v>
+      <c r="B89" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>8</v>
+      <c r="B90" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A2298-B590-41F2-9BCD-35C74A67EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EB3120-B5C9-431B-8681-4F1B289803D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">   Para tasa de desempleo: Oficina de Estadísticas Laborales de EE.UU. Tasa de desempleo. En: www.bls.gov.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -121,19 +121,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,20 +141,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,7 +352,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -388,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F85" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F85" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F86" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F86" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -411,7 +411,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,28 +419,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -449,14 +449,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -631,28 +631,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O93"/>
+  <dimension ref="B2:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
-    <col min="7" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="18.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -686,7 +686,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
@@ -703,1443 +703,1460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13">
+    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>2024</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6">
+        <v>101.8729</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>102.8278</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D6" s="5">
+        <v>102.7222</v>
+      </c>
+      <c r="E6" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>2.44</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
-        <v>105.0742</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D7" s="6">
+        <v>105.1313</v>
+      </c>
+      <c r="E7" s="6">
         <v>4.2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="6">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
-        <v>103.0774</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D8" s="5">
+        <v>103.02809999999999</v>
+      </c>
+      <c r="E8" s="5">
         <v>4.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <v>2.89</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
-        <v>104.4294</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D9" s="6">
+        <v>104.47790000000001</v>
+      </c>
+      <c r="E9" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>2.97</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>101.977</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D10" s="5">
+        <v>101.8856</v>
+      </c>
+      <c r="E10" s="5">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <v>3.27</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>101.4174</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>3.9</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>3.36</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>102.7146</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>3.8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>3.48</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="12">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>102.74769999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>3.9</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>3.15</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>101.7062</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>3.7</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>3.09</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
         <v>2023</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>102.2236</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>3.7</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>3.35</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
         <v>2023</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <v>102.0599</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>3.7</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>3.14</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
         <v>2023</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>102.16540000000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="6">
         <v>3.8</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>3.24</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
         <v>2023</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>103.2998</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>3.8</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>105.14579999999999</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E19" s="6">
         <v>3.8</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>3.67</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>103.3639</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>3.5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>3.18</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>103.5035</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>3.6</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>2.97</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>101.90900000000001</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>3.7</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>4.05</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="12">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>101.804</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>3.4</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F23" s="6">
         <v>4.93</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>103.375</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>3.5</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="12">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D25" s="6">
         <v>102.9141</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>3.6</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <v>6.04</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>102.7552</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>3.4</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>6.41</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
         <v>2022</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>101.66070000000001</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>3.5</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="8">
         <v>6.45</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
         <v>2022</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>102.4696</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>3.6</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>7.11</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="12">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
         <v>2022</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>103.0849</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>3.6</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>7.75</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
         <v>2022</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>103.4627</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>3.5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D31" s="6">
         <v>104.8612</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>3.6</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F31" s="6">
         <v>8.26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>103.34439999999999</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>3.5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>8.52</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>103.92619999999999</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E33" s="6">
         <v>3.6</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F33" s="6">
         <v>9.06</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>101.9909</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>3.6</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>8.58</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>100.8862</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <v>3.7</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <v>8.26</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>103.2771</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>3.6</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="12">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>102.0634</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E37" s="6">
         <v>3.8</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F37" s="6">
         <v>7.87</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>101.5271</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>4</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>7.48</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="15">
+    <row r="39" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
         <v>2021</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>100.6437</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>3.9</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>7.04</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13">
         <v>2021</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D40" s="5">
         <v>100.6087</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F40" s="5">
         <v>6.81</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="12">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
         <v>2021</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D41" s="6">
         <v>100.1228</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E41" s="6">
         <v>4.5</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F41" s="6">
         <v>6.22</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13">
         <v>2021</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>98.75</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>4.7</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>5.39</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>101.89190000000001</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E43" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F43" s="6">
         <v>5.25</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>100.1131</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>5.4</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>5.37</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D45" s="6">
         <v>100.80200000000001</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E45" s="6">
         <v>5.9</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F45" s="6">
         <v>5.39</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>98.150300000000001</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>5.8</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <v>4.99</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <v>96.961500000000001</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>6.1</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <v>4.16</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>98.701999999999998</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>6.1</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <v>2.62</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="12">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>95.888599999999997</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E49" s="6">
         <v>6.2</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F49" s="6">
         <v>1.68</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="14">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>98.966499999999996</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>6.4</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>1.4</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
         <v>2020</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <v>97.869399999999999</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="8">
         <v>6.7</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="8">
         <v>1.36</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13">
         <v>2020</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>96.284700000000001</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>6.7</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="5">
         <v>1.17</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="12">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="12">
         <v>2020</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>96.455699999999993</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E53" s="6">
         <v>6.8</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>1.18</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="13">
         <v>2020</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>95.703000000000003</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>7.8</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <v>1.37</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D55" s="6">
         <v>98.2239</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>8.4</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F55" s="6">
         <v>1.31</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>95.093900000000005</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>0.99</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="12">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>92.993700000000004</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <v>11</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>84.979799999999997</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>13.2</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="12">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>82.676699999999997</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <v>14.8</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <v>0.33</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>97.961399999999998</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <v>1.54</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="12">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D61" s="6">
         <v>101.9971</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E61" s="6">
         <v>3.5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F61" s="6">
         <v>2.33</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="14">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>101.2492</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>3.6</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="15">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
         <v>2019</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <v>101.7191</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="8">
         <v>3.6</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="8">
         <v>2.29</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="13">
         <v>2019</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D64" s="5">
         <v>101.5253</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E64" s="5">
         <v>3.6</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F64" s="5">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="12">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="12">
         <v>2019</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <v>101.36490000000001</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <v>3.6</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <v>1.76</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
         <v>2019</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>102.9937</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>3.5</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <v>1.71</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="12">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D67" s="6">
         <v>104.8749</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E67" s="6">
         <v>3.6</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F67" s="6">
         <v>1.75</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>101.9945</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>3.7</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="5">
         <v>1.81</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="12">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D69" s="6">
         <v>103.92700000000001</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E69" s="6">
         <v>3.6</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F69" s="6">
         <v>1.65</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>101.1883</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>3.6</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>1.79</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="12">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D71" s="6">
         <v>100.631</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E71" s="6">
         <v>3.7</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F71" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>103.0488</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>3.8</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <v>1.86</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="12">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <v>102.7354</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <v>3.8</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <v>1.52</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="14">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>103.1493</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>4</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>1.55</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="12">
         <v>2018</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C75" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D75" s="6">
         <v>103.6027</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E75" s="6">
         <v>3.9</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F75" s="6">
         <v>1.91</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="13">
         <v>2018</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>103.21129999999999</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>3.8</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <v>103.49120000000001</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <v>3.8</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <v>2.52</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>104.57080000000001</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>3.7</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D79" s="6">
         <v>106.0834</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E79" s="6">
         <v>3.8</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F79" s="6">
         <v>2.7</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>103.3622</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>3.8</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <v>2.95</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D81" s="6">
         <v>104.5796</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E81" s="6">
         <v>4</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>2.87</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>101.2677</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>3.8</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="5">
         <v>2.8</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D83" s="6">
         <v>101.85639999999999</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E83" s="6">
         <v>4</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>2.46</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
+    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>102.4751</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>4</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <v>2.36</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="6">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E84" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F84" s="6">
-        <v>2.21</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="13">
+    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="5">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E85" s="5">
-        <v>4</v>
-      </c>
-      <c r="F85" s="5">
-        <v>2.0699999999999998</v>
+      <c r="C85" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="6">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E85" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F85" s="6">
+        <v>2.21</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="2" t="s">
-        <v>23</v>
+    </row>
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="5">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E86" s="5">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5">
+        <v>2.0699999999999998</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="2" t="s">
-        <v>3</v>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="17" t="s">
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="17" t="s">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
     </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E92:F92"/>
     <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EB3120-B5C9-431B-8681-4F1B289803D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27D4B7E-AC9F-4966-9021-536DD1ADDB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -98,16 +98,16 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t xml:space="preserve">     La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Para tasa de inflación: IPC Inflación Estados Unidos. En: es.inflation.eu.</t>
   </si>
   <si>
     <t xml:space="preserve">   Para tasa de desempleo: Oficina de Estadísticas Laborales de EE.UU. Tasa de desempleo. En: www.bls.gov.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
   </si>
 </sst>
 </file>
@@ -126,23 +126,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -152,11 +139,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -243,26 +245,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -272,25 +265,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -298,30 +301,78 @@
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -341,6 +392,26 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -352,9 +423,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -388,11 +460,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F86" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F86" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F87" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="B4:F87" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -631,28 +702,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="18.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="14" width="8.625" customWidth="1"/>
-    <col min="15" max="15" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="3" width="7.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
+    <col min="7" max="11" width="15.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -670,7 +741,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -686,1479 +757,1496 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:15" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="8">
         <v>2024</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9">
+        <v>101.1225</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.7493803960905616</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
-        <v>101.8729</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D6" s="11">
+        <v>101.6862</v>
+      </c>
+      <c r="E6" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F6" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
-        <v>102.7222</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D7" s="9">
+        <v>102.69540000000001</v>
+      </c>
+      <c r="E7" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="9">
         <v>2.44</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>105.1313</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D8" s="11">
+        <v>105.1687</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="11">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="9">
         <v>103.02809999999999</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="9">
         <v>4.3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="9">
         <v>2.89</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
-        <v>104.47790000000001</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D10" s="11">
+        <v>104.4554</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="9">
         <v>3.27</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="11">
         <v>3.9</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F12" s="11">
         <v>3.36</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="9">
         <v>3.8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="9">
         <v>3.48</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="11">
         <v>3.9</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="11">
         <v>3.15</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="13">
         <v>3.7</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="13">
         <v>3.09</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
+    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="15">
         <v>3.7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="15">
         <v>3.35</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="8">
         <v>2023</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="9">
         <v>3.7</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="9">
         <v>3.14</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="11">
         <v>3.8</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F18" s="11">
         <v>3.24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="9">
         <v>3.8</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="9">
         <v>3.7</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="12">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="11">
         <v>3.8</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="11">
         <v>3.67</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="9">
         <v>3.5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="9">
         <v>3.18</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="11">
         <v>3.6</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="9">
         <v>3.7</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="11">
         <v>101.804</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="11">
         <v>3.4</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="11">
         <v>4.93</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="9">
         <v>103.375</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="9">
         <v>3.5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="12">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D26" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="11">
         <v>3.6</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="11">
         <v>6.04</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="13">
         <v>3.4</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="13">
         <v>6.41</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="15">
         <v>3.5</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="15">
         <v>6.45</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="8">
         <v>2022</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E29" s="9">
         <v>3.6</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F29" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="11">
         <v>3.6</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="9">
         <v>3.5</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D32" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="11">
         <v>3.6</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="9">
         <v>3.5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="12">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E34" s="11">
         <v>3.6</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F34" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="9">
         <v>3.6</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E36" s="11">
         <v>3.7</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F36" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="9">
         <v>3.6</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D38" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="11">
         <v>3.8</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="13">
         <v>4</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="15">
         <v>3.9</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="8">
         <v>2021</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="11">
         <v>4.5</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="9">
         <v>98.75</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="9">
         <v>4.7</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D44" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E44" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F44" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="9">
         <v>5.4</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D46" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E46" s="11">
         <v>5.9</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F46" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="9">
         <v>5.8</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F47" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E48" s="11">
         <v>6.1</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F48" s="11">
         <v>4.16</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="9">
         <v>6.1</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D50" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="11">
         <v>6.2</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="13">
         <v>6.4</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="15">
         <v>6.7</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="8">
         <v>2020</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="9">
         <v>6.7</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F53" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E54" s="11">
         <v>6.8</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="9">
         <v>7.8</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="11">
         <v>8.4</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F57" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="11">
         <v>11</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="9">
         <v>13.2</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D60" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E60" s="11">
         <v>14.8</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F60" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D62" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="11">
         <v>3.5</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="13">
         <v>3.6</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="15">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="15">
         <v>3.6</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="8">
         <v>2019</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D65" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E65" s="9">
         <v>3.6</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F65" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E66" s="11">
         <v>3.6</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F66" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="9">
         <v>3.5</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D68" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E68" s="11">
         <v>3.6</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F68" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="9">
         <v>3.7</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D70" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E70" s="11">
         <v>3.6</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F70" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="9">
         <v>3.6</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="11">
         <v>100.631</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E72" s="11">
         <v>3.7</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="9">
         <v>3.8</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D74" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E74" s="11">
         <v>3.8</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F74" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="14">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="13">
         <v>4</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2018</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D76" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="11">
         <v>3.9</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="8">
         <v>2018</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="9">
         <v>3.8</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F77" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="11">
         <v>3.8</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="9">
         <v>3.7</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D80" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E80" s="11">
         <v>3.8</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F80" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="13">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="9">
         <v>3.8</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="11">
         <v>4</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="9">
         <v>3.8</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D84" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E84" s="11">
         <v>4</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F84" s="11">
         <v>2.46</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13">
+    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="9">
         <v>102.4751</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="9">
         <v>4</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="9">
         <v>2.36</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="12">
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D86" s="11">
         <v>101.74039999999999</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E86" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="11">
         <v>2.21</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13">
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+    </row>
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="9">
         <v>101.56059999999999</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="9">
         <v>4</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="9">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="L87" s="16"/>
+    </row>
+    <row r="88" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="L88" s="16"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B93" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E93:F93"/>
     <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CCF132-2290-498E-9AB8-38B5AA5C45BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38084D-CCBA-4E3F-B386-CC0A7E2E92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -110,7 +110,7 @@
     <t>4.16 </t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -245,12 +245,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -299,6 +310,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -463,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F88" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F88" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F89" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -705,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -778,1493 +793,1510 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10">
+      <c r="B5" s="20">
+        <v>2025</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="21">
+        <v>103.7898</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21">
+        <v>3.0004831121501097</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11">
-        <v>102.55410000000001</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D6" s="11">
+        <v>102.41200000000001</v>
+      </c>
+      <c r="E6" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>2.8880572199800669</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9">
-        <v>101.40349999999999</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="9">
+        <v>101.0791</v>
+      </c>
+      <c r="E7" s="9">
         <v>4.2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>2.7493803960905616</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11">
-        <v>101.7003</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D8" s="11">
+        <v>101.6529</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9">
-        <v>102.7598</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="9">
+        <v>102.75190000000001</v>
+      </c>
+      <c r="E9" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>2.44</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
-        <v>105.09990000000001</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D10" s="11">
+        <v>105.0731</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>103.01900000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>4.2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>2.89</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>104.4554</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>3.27</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>3.9</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>3.36</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>3.9</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>3.48</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>3.9</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>3.15</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="12">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>3.7</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>3.09</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D18" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>3.7</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>3.35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="8">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>3.7</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>3.14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>3.8</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>3.24</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>3.8</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>3.7</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>3.8</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>3.67</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>3.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>3.18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>3.6</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>3.7</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>101.804</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>3.4</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>4.93</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>103.375</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>3.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>3.6</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>6.04</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="12">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>3.4</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>6.41</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D30" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>3.5</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>6.45</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="8">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>3.6</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>3.6</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>3.5</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>3.6</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>3.5</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>3.6</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>3.6</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>3.7</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>3.6</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>3.8</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="12">
+    <row r="41" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>4</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C42" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D42" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>3.9</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="8">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>4.5</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>98.75</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>4.7</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>5.4</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>5.9</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>5.8</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>6.1</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>6.1</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>6.2</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="12">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>6.4</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D54" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>6.7</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="8">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>6.7</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>6.8</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>7.8</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>8.4</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>11</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>13.2</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>14.8</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>3.5</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="12">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>3.6</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C66" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D66" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>3.6</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="8">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>3.6</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>3.6</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>3.5</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>3.6</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>3.7</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>3.6</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>3.6</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>100.631</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>3.7</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>3.8</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>3.8</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="12">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>4</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>3.9</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="8">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>3.8</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>3.8</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>3.7</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>3.8</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>3.8</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>4</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>3.8</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>4</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>2.46</v>
-      </c>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-    </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="9">
-        <v>102.4751</v>
-      </c>
-      <c r="E86" s="9">
-        <v>4</v>
-      </c>
-      <c r="F86" s="9">
-        <v>2.36</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="11">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E87" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F87" s="11">
-        <v>2.21</v>
+      <c r="C87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="9">
+        <v>102.4751</v>
+      </c>
+      <c r="E87" s="9">
+        <v>4</v>
+      </c>
+      <c r="F87" s="9">
+        <v>2.36</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
-      <c r="L87" s="16"/>
     </row>
     <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="9">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E88" s="9">
-        <v>4</v>
-      </c>
-      <c r="F88" s="9">
-        <v>2.0699999999999998</v>
+      <c r="C88" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E88" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F88" s="11">
+        <v>2.21</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E89" s="9">
+        <v>4</v>
+      </c>
+      <c r="F89" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="L89" s="16"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B91" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="16"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
-        <v>3</v>
+      <c r="B92" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B95" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
     </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E95:F95"/>
     <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38084D-CCBA-4E3F-B386-CC0A7E2E92B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F83AD6-E310-42FF-A382-1D8F6EF3C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">   Para tasa de desempleo: Oficina de Estadísticas Laborales de EE.UU. Tasa de desempleo. En: www.bls.gov.</t>
   </si>
   <si>
-    <t xml:space="preserve">    La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
-  </si>
-  <si>
     <t>4.16 </t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,23 +245,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -302,18 +291,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -478,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F89" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F89" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F90" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -722,11 +707,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="3" width="7.375" style="3" customWidth="1"/>
@@ -741,7 +726,7 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -759,7 +744,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -775,7 +760,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:15" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15" s="7" customFormat="1" ht="33">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -792,1506 +777,1521 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+    <row r="5" spans="2:15" s="7" customFormat="1">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11">
+        <v>104.34399999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.8215489517475101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1">
+      <c r="B6" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D6" s="13">
         <v>103.7898</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F6" s="13">
         <v>3.0004831121501097</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+    <row r="7" spans="2:15" s="7" customFormat="1">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>102.41200000000001</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>2.8880572199800669</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" s="7" customFormat="1">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>101.0791</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>4.2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>2.7493803960905616</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15" s="7" customFormat="1">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>101.6529</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>102.75190000000001</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>2.44</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>105.0731</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>4.2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:15">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>103.01900000000001</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>4.2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>2.89</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>104.4554</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>3.27</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:15">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>3.9</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>3.36</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>3.9</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>3.48</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>3.9</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>3.15</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:6">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>3.7</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>3.09</v>
       </c>
     </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:6" hidden="1">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>3.7</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>3.35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:6" hidden="1">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>3.7</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>3.14</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>3.8</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>3.24</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>3.8</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>3.8</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>3.67</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>3.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>3.18</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>3.6</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>3.7</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>101.804</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>3.4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>4.93</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>103.375</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>3.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>3.6</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>6.04</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>3.4</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>6.41</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>3.5</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>6.45</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>3.6</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>3.6</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>3.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>3.6</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>3.5</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>3.6</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>3.6</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>3.7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>3.6</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>3.8</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>4</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>3.9</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>4.5</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>98.75</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>4.7</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>5.4</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>5.9</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>5.8</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>6.1</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8">
+      <c r="F51" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>6.1</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>6.2</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>6.4</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>6.7</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>6.7</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>6.8</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>7.8</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>8.4</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>11</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>13.2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>14.8</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>3.5</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>3.6</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>3.6</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>3.6</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>3.6</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>3.5</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>3.6</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>3.7</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>3.6</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>3.6</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>100.631</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>3.7</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>3.8</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>3.8</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>4</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>3.9</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>3.8</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>3.8</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>3.7</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>3.8</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>3.8</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>4</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>3.8</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>4</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>2.46</v>
-      </c>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-    </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="9">
-        <v>102.4751</v>
-      </c>
-      <c r="E87" s="9">
-        <v>4</v>
-      </c>
-      <c r="F87" s="9">
-        <v>2.36</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="11">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E88" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F88" s="11">
-        <v>2.21</v>
+      <c r="C88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="9">
+        <v>102.4751</v>
+      </c>
+      <c r="E88" s="9">
+        <v>4</v>
+      </c>
+      <c r="F88" s="9">
+        <v>2.36</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
-      <c r="L88" s="16"/>
-    </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="8">
+    </row>
+    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="9">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E89" s="9">
-        <v>4</v>
-      </c>
-      <c r="F89" s="9">
-        <v>2.0699999999999998</v>
+      <c r="C89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E89" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F89" s="11">
+        <v>2.21</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B90" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E90" s="9">
+        <v>4</v>
+      </c>
+      <c r="F90" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="L90" s="16"/>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="16"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B92" s="17" t="s">
-        <v>22</v>
+    <row r="92" spans="2:12">
+      <c r="B92" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="16"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
-        <v>3</v>
+    <row r="93" spans="2:12">
+      <c r="B93" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B94" s="18" t="s">
+    <row r="94" spans="2:12">
+      <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B95" s="18" t="s">
+    <row r="96" spans="2:12">
+      <c r="B96" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\1-Indicadores Económicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F83AD6-E310-42FF-A382-1D8F6EF3C13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168365A8-9AF8-4085-A81C-7F09F18681AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -107,10 +107,10 @@
     <t>4.16 </t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
+  </si>
+  <si>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -294,10 +294,10 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -463,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F90" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F90" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F91" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -705,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O97"/>
+  <dimension ref="B2:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -778,1525 +778,1542 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9">
+        <v>104.41160000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1">
+      <c r="B6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>104.34399999999999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E6" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>2.8215489517475101</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1">
-      <c r="B6" s="12">
+    <row r="7" spans="2:15" s="7" customFormat="1">
+      <c r="B7" s="12">
         <v>2025</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13">
-        <v>103.7898</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D7" s="13">
+        <v>103.8566</v>
+      </c>
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>3.0004831121501097</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1">
-      <c r="B7" s="10">
+    <row r="8" spans="2:15" s="7" customFormat="1">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11">
-        <v>102.41200000000001</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D8" s="11">
+        <v>102.6566</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>2.8880572199800669</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" s="7" customFormat="1">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9">
-        <v>101.0791</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="9">
+        <v>101.06740000000001</v>
+      </c>
+      <c r="E9" s="9">
         <v>4.2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>2.7493803960905616</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="7" customFormat="1">
-      <c r="B9" s="10">
+    <row r="10" spans="2:15" s="7" customFormat="1">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
-        <v>101.6529</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D10" s="11">
+        <v>101.75230000000001</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="8">
+    <row r="11" spans="2:15">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
-        <v>102.75190000000001</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D11" s="9">
+        <v>102.7617</v>
+      </c>
+      <c r="E11" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>2.44</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="10">
+    <row r="12" spans="2:15">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>105.0731</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>4.2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>103.01900000000001</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>4.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>2.89</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="10">
+    <row r="14" spans="2:15">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>104.4554</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>4</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>3.27</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="10">
+    <row r="16" spans="2:15">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>3.9</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>3.36</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="8">
+    <row r="17" spans="2:6">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>3.9</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>3.48</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10">
+    <row r="18" spans="2:6">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>3.9</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>3.15</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="12">
+    <row r="19" spans="2:6">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>3.7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>3.09</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1">
-      <c r="B19" s="14">
+    <row r="20" spans="2:6" hidden="1">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>3.7</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>3.35</v>
       </c>
     </row>
-    <row r="20" spans="2:6" hidden="1">
-      <c r="B20" s="8">
+    <row r="21" spans="2:6" hidden="1">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>3.7</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>3.14</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="10">
+    <row r="22" spans="2:6" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>3.8</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>3.24</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="8">
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>3.8</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>3.7</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="10">
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>3.8</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>3.67</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="8">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>3.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>3.18</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>3.6</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>2.97</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>3.7</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>4.05</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>101.804</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>3.4</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>4.93</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>103.375</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>3.5</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>3.6</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>6.04</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>3.4</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>6.41</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>3.5</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>6.45</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="8">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>3.6</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>3.6</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>3.5</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>3.6</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="8">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>3.5</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>3.6</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>3.6</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>3.7</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>3.6</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>3.8</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>4</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>3.9</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>4.5</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>98.75</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>4.7</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>5.4</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>5.9</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>5.8</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>6.1</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>6.1</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>6.2</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>6.4</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>6.7</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>6.7</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>6.8</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>7.8</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>8.4</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>11</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>13.2</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>14.8</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>3.5</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>3.6</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>3.6</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>3.6</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>3.6</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>3.5</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>3.6</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>3.7</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>3.6</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>3.6</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>100.631</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>3.7</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>3.8</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>3.8</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>4</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>3.9</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>3.8</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>3.8</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>3.7</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>3.8</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>3.8</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>4</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>3.8</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>4</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>2.46</v>
-      </c>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-    </row>
-    <row r="88" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B88" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="9">
-        <v>102.4751</v>
-      </c>
-      <c r="E88" s="9">
-        <v>4</v>
-      </c>
-      <c r="F88" s="9">
-        <v>2.36</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B89" s="10">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="11">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E89" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F89" s="11">
-        <v>2.21</v>
+      <c r="C89" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="9">
+        <v>102.4751</v>
+      </c>
+      <c r="E89" s="9">
+        <v>4</v>
+      </c>
+      <c r="F89" s="9">
+        <v>2.36</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
-      <c r="L89" s="16"/>
     </row>
     <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B90" s="8">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="9">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E90" s="9">
-        <v>4</v>
-      </c>
-      <c r="F90" s="9">
-        <v>2.0699999999999998</v>
+      <c r="C90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E90" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F90" s="11">
+        <v>2.21</v>
       </c>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12">
-      <c r="B91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="16"/>
+    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B91" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E91" s="9">
+        <v>4</v>
+      </c>
+      <c r="F91" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="L91" s="16"/>
     </row>
     <row r="92" spans="2:12">
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="16"/>
     </row>
     <row r="93" spans="2:12">
-      <c r="B93" s="19" t="s">
-        <v>24</v>
+      <c r="B93" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="2:12">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="96" spans="2:12">
       <c r="B96" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E96:F96"/>
     <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E93A3-0B58-47EC-9DB3-6CF64E937C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED99FA9-7330-440B-904D-27290D89BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -110,7 +110,7 @@
     <t xml:space="preserve"> La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F92" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F94" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F94" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -706,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -783,16 +783,16 @@
         <v>2025</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11">
-        <v>102.8171</v>
+        <v>105.28</v>
       </c>
       <c r="E5" s="11">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F5" s="11">
-        <v>2.3112888616734963</v>
+        <v>2.6692130182223179</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="7" customFormat="1">
@@ -800,16 +800,16 @@
         <v>2025</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9">
-        <v>104.40770000000001</v>
+        <v>102.723</v>
       </c>
       <c r="E6" s="9">
         <v>4.2</v>
       </c>
       <c r="F6" s="9">
-        <v>2.3907252538964898</v>
+        <v>2.3548965354746749</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="7" customFormat="1">
@@ -817,67 +817,67 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="11">
-        <v>104.3325</v>
+        <v>102.7645</v>
       </c>
       <c r="E7" s="11">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F7" s="11">
-        <v>2.8215489517475079</v>
+        <v>2.3112888616734963</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="7" customFormat="1">
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13">
-        <v>103.7222</v>
-      </c>
-      <c r="E8" s="13">
-        <v>4</v>
-      </c>
-      <c r="F8" s="13">
-        <v>3.000483112150115</v>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9">
+        <v>104.2957</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2.3907252538964898</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="7" customFormat="1">
       <c r="B9" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11">
-        <v>102.6053</v>
+        <v>104.1786</v>
       </c>
       <c r="E9" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="F9" s="11">
-        <v>2.8880572199800612</v>
+        <v>2.8215489517475079</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="7" customFormat="1">
-      <c r="B10" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="9">
-        <v>101.0591</v>
-      </c>
-      <c r="E10" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2.7493803960905545</v>
+      <c r="B10" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>103.45140000000001</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3.000483112150115</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="7" customFormat="1">
@@ -885,50 +885,50 @@
         <v>2024</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11">
-        <v>101.75230000000001</v>
+        <v>102.6053</v>
       </c>
       <c r="E11" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="F11" s="11">
-        <v>2.5979049049146639</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15">
+        <v>2.8880572199800612</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" s="7" customFormat="1">
       <c r="B12" s="8">
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9">
-        <v>102.7617</v>
+        <v>101.0591</v>
       </c>
       <c r="E12" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F12" s="9">
-        <v>2.4406330310699866</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
+        <v>2.7493803960905545</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="7" customFormat="1">
       <c r="B13" s="10">
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11">
-        <v>105.0731</v>
+        <v>101.75230000000001</v>
       </c>
       <c r="E13" s="11">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F13" s="11">
-        <v>2.5307302964569716</v>
+        <v>2.5979049049146639</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -936,16 +936,16 @@
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="9">
-        <v>103.01900000000001</v>
+        <v>102.7617</v>
       </c>
       <c r="E14" s="9">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F14" s="9">
-        <v>2.8947531984913026</v>
+        <v>2.4406330310699866</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -953,16 +953,16 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="11">
-        <v>104.4554</v>
+        <v>105.0731</v>
       </c>
       <c r="E15" s="11">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="F15" s="11">
-        <v>2.9713971072633161</v>
+        <v>2.5307302964569716</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -970,16 +970,16 @@
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9">
-        <v>101.8856</v>
+        <v>103.01900000000001</v>
       </c>
       <c r="E16" s="9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F16" s="9">
-        <v>3.2690290569400307</v>
+        <v>2.8947531984913026</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -987,16 +987,16 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11">
-        <v>101.4174</v>
+        <v>104.4554</v>
       </c>
       <c r="E17" s="11">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F17" s="11">
-        <v>3.3573639501191646</v>
+        <v>2.9713971072633161</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -1004,16 +1004,16 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9">
-        <v>102.7146</v>
+        <v>101.8856</v>
       </c>
       <c r="E18" s="9">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F18" s="9">
-        <v>3.4773850700380278</v>
+        <v>3.2690290569400307</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -1021,84 +1021,84 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="11">
-        <v>102.74769999999999</v>
+        <v>101.4174</v>
       </c>
       <c r="E19" s="11">
         <v>3.9</v>
       </c>
       <c r="F19" s="11">
+        <v>3.3573639501191646</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="9">
+        <v>102.7146</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.4773850700380278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="11">
+        <v>102.74769999999999</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="F21" s="11">
         <v>3.1531711208616029</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="12">
+    <row r="22" spans="2:6">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D22" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E22" s="13">
         <v>3.7</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F22" s="13">
         <v>3.0908847812280498</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1">
-      <c r="B21" s="14">
+    <row r="23" spans="2:6" hidden="1">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D23" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="15">
         <v>3.8</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F23" s="15">
         <v>3.3521228314302216</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" hidden="1">
-      <c r="B22" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="9">
-        <v>102.0599</v>
-      </c>
-      <c r="E22" s="9">
-        <v>3.7</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.1372707088417875</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11">
-        <v>102.16540000000001</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3.2411446518932094</v>
       </c>
     </row>
     <row r="24" spans="2:6" hidden="1">
@@ -1106,16 +1106,16 @@
         <v>2023</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" s="9">
-        <v>103.2998</v>
+        <v>102.0599</v>
       </c>
       <c r="E24" s="9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F24" s="9">
-        <v>3.6996981213444364</v>
+        <v>3.1372707088417875</v>
       </c>
     </row>
     <row r="25" spans="2:6" hidden="1">
@@ -1123,16 +1123,16 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D25" s="11">
-        <v>105.14579999999999</v>
+        <v>102.16540000000001</v>
       </c>
       <c r="E25" s="11">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F25" s="11">
-        <v>3.665112384399559</v>
+        <v>3.2411446518932094</v>
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1">
@@ -1140,16 +1140,16 @@
         <v>2023</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="9">
-        <v>103.3639</v>
+        <v>103.2998</v>
       </c>
       <c r="E26" s="9">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F26" s="9">
-        <v>3.1777801779421764</v>
+        <v>3.6996981213444364</v>
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1">
@@ -1157,16 +1157,16 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" s="11">
-        <v>103.5035</v>
+        <v>105.14579999999999</v>
       </c>
       <c r="E27" s="11">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F27" s="11">
-        <v>2.9691776545588935</v>
+        <v>3.665112384399559</v>
       </c>
     </row>
     <row r="28" spans="2:6" hidden="1">
@@ -1174,16 +1174,16 @@
         <v>2023</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="9">
-        <v>101.90900000000001</v>
+        <v>103.3639</v>
       </c>
       <c r="E28" s="9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F28" s="9">
-        <v>4.0476092727919699</v>
+        <v>3.1777801779421764</v>
       </c>
     </row>
     <row r="29" spans="2:6" hidden="1">
@@ -1191,16 +1191,16 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11">
-        <v>101.804</v>
+        <v>103.5035</v>
       </c>
       <c r="E29" s="11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F29" s="11">
-        <v>4.9303203981889254</v>
+        <v>2.9691776545588935</v>
       </c>
     </row>
     <row r="30" spans="2:6" hidden="1">
@@ -1208,16 +1208,16 @@
         <v>2023</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="9">
-        <v>103.375</v>
+        <v>101.90900000000001</v>
       </c>
       <c r="E30" s="9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F30" s="9">
-        <v>4.9849741220991683</v>
+        <v>4.0476092727919699</v>
       </c>
     </row>
     <row r="31" spans="2:6" hidden="1">
@@ -1225,84 +1225,84 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="11">
+        <v>101.804</v>
+      </c>
+      <c r="E31" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="F31" s="11">
+        <v>4.9303203981889254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="9">
+        <v>103.375</v>
+      </c>
+      <c r="E32" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4.9849741220991683</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>3.6</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>6.0356130778665866</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="12">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D34" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E34" s="13">
         <v>3.5</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="13">
         <v>6.4101469688562576</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="14">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D35" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E35" s="15">
         <v>3.5</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F35" s="15">
         <v>6.4544013314108239</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="9">
-        <v>102.4696</v>
-      </c>
-      <c r="E34" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="F34" s="9">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11">
-        <v>103.0849</v>
-      </c>
-      <c r="E35" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="F35" s="11">
-        <v>7.75</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1">
@@ -1310,16 +1310,16 @@
         <v>2022</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9">
-        <v>103.4627</v>
+        <v>102.4696</v>
       </c>
       <c r="E36" s="9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F36" s="9">
-        <v>8.1999999999999993</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1">
@@ -1327,16 +1327,16 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D37" s="11">
-        <v>104.8612</v>
+        <v>103.0849</v>
       </c>
       <c r="E37" s="11">
         <v>3.6</v>
       </c>
       <c r="F37" s="11">
-        <v>8.26</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1">
@@ -1344,16 +1344,16 @@
         <v>2022</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9">
-        <v>103.34439999999999</v>
+        <v>103.4627</v>
       </c>
       <c r="E38" s="9">
         <v>3.5</v>
       </c>
       <c r="F38" s="9">
-        <v>8.52</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1">
@@ -1361,16 +1361,16 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="11">
-        <v>103.92619999999999</v>
+        <v>104.8612</v>
       </c>
       <c r="E39" s="11">
         <v>3.6</v>
       </c>
       <c r="F39" s="11">
-        <v>9.06</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1">
@@ -1378,16 +1378,16 @@
         <v>2022</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="9">
-        <v>101.9909</v>
+        <v>103.34439999999999</v>
       </c>
       <c r="E40" s="9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F40" s="9">
-        <v>8.58</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1">
@@ -1395,16 +1395,16 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="11">
-        <v>100.8862</v>
+        <v>103.92619999999999</v>
       </c>
       <c r="E41" s="11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F41" s="11">
-        <v>8.26</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="42" spans="2:6" hidden="1">
@@ -1412,16 +1412,16 @@
         <v>2022</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="9">
-        <v>103.2771</v>
+        <v>101.9909</v>
       </c>
       <c r="E42" s="9">
         <v>3.6</v>
       </c>
       <c r="F42" s="9">
-        <v>8.5399999999999991</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1">
@@ -1429,84 +1429,84 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11">
+        <v>100.8862</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="F43" s="11">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="9">
+        <v>103.2771</v>
+      </c>
+      <c r="E44" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="F44" s="9">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D45" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E45" s="11">
         <v>3.8</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F45" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B44" s="12">
+    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D46" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E46" s="13">
         <v>4</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F46" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="14">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C47" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D47" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E47" s="15">
         <v>3.9</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F47" s="15">
         <v>7.04</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="8">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="9">
-        <v>100.6087</v>
-      </c>
-      <c r="E46" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F46" s="9">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11">
-        <v>100.1228</v>
-      </c>
-      <c r="E47" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="F47" s="11">
-        <v>6.22</v>
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1">
@@ -1514,16 +1514,16 @@
         <v>2021</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="9">
-        <v>98.75</v>
+        <v>100.6087</v>
       </c>
       <c r="E48" s="9">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F48" s="9">
-        <v>5.39</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="49" spans="2:6" hidden="1">
@@ -1531,16 +1531,16 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D49" s="11">
-        <v>101.89190000000001</v>
+        <v>100.1228</v>
       </c>
       <c r="E49" s="11">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F49" s="11">
-        <v>5.25</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="50" spans="2:6" hidden="1">
@@ -1548,16 +1548,16 @@
         <v>2021</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="9">
-        <v>100.1131</v>
+        <v>98.75</v>
       </c>
       <c r="E50" s="9">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="F50" s="9">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="51" spans="2:6" hidden="1">
@@ -1565,16 +1565,16 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="11">
-        <v>100.80200000000001</v>
+        <v>101.89190000000001</v>
       </c>
       <c r="E51" s="11">
-        <v>5.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F51" s="11">
-        <v>5.39</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="52" spans="2:6" hidden="1">
@@ -1582,16 +1582,16 @@
         <v>2021</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="9">
-        <v>98.150300000000001</v>
+        <v>100.1131</v>
       </c>
       <c r="E52" s="9">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="F52" s="9">
-        <v>4.99</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="53" spans="2:6" hidden="1">
@@ -1599,16 +1599,16 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="11">
-        <v>96.961500000000001</v>
+        <v>100.80200000000001</v>
       </c>
       <c r="E53" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>22</v>
+        <v>5.9</v>
+      </c>
+      <c r="F53" s="11">
+        <v>5.39</v>
       </c>
     </row>
     <row r="54" spans="2:6" hidden="1">
@@ -1616,16 +1616,16 @@
         <v>2021</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="9">
-        <v>98.701999999999998</v>
+        <v>98.150300000000001</v>
       </c>
       <c r="E54" s="9">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F54" s="9">
-        <v>2.62</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="55" spans="2:6" hidden="1">
@@ -1633,84 +1633,84 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="11">
+        <v>96.961500000000001</v>
+      </c>
+      <c r="E55" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="9">
+        <v>98.701999999999998</v>
+      </c>
+      <c r="E56" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D57" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E57" s="11">
         <v>6.2</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F57" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="12">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D58" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E58" s="13">
         <v>6.4</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F58" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="14">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D59" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E59" s="15">
         <v>6.7</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F59" s="15">
         <v>1.36</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="9">
-        <v>96.284700000000001</v>
-      </c>
-      <c r="E58" s="9">
-        <v>6.7</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="11">
-        <v>96.455699999999993</v>
-      </c>
-      <c r="E59" s="11">
-        <v>6.8</v>
-      </c>
-      <c r="F59" s="11">
-        <v>1.18</v>
       </c>
     </row>
     <row r="60" spans="2:6" hidden="1">
@@ -1718,16 +1718,16 @@
         <v>2020</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" s="9">
-        <v>95.703000000000003</v>
+        <v>96.284700000000001</v>
       </c>
       <c r="E60" s="9">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="F60" s="9">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="61" spans="2:6" hidden="1">
@@ -1735,16 +1735,16 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D61" s="11">
-        <v>98.2239</v>
+        <v>96.455699999999993</v>
       </c>
       <c r="E61" s="11">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="F61" s="11">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="62" spans="2:6" hidden="1">
@@ -1752,16 +1752,16 @@
         <v>2020</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="9">
-        <v>95.093900000000005</v>
+        <v>95.703000000000003</v>
       </c>
       <c r="E62" s="9">
-        <v>10.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="F62" s="9">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="63" spans="2:6" hidden="1">
@@ -1769,16 +1769,16 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63" s="11">
-        <v>92.993700000000004</v>
+        <v>98.2239</v>
       </c>
       <c r="E63" s="11">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="F63" s="11">
-        <v>0.65</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="64" spans="2:6" hidden="1">
@@ -1786,16 +1786,16 @@
         <v>2020</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="9">
-        <v>84.979799999999997</v>
+        <v>95.093900000000005</v>
       </c>
       <c r="E64" s="9">
-        <v>13.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F64" s="9">
-        <v>0.12</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="65" spans="2:6" hidden="1">
@@ -1803,16 +1803,16 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="11">
-        <v>82.676699999999997</v>
+        <v>92.993700000000004</v>
       </c>
       <c r="E65" s="11">
-        <v>14.8</v>
+        <v>11</v>
       </c>
       <c r="F65" s="11">
-        <v>0.33</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="66" spans="2:6" hidden="1">
@@ -1820,16 +1820,16 @@
         <v>2020</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="9">
-        <v>97.961399999999998</v>
+        <v>84.979799999999997</v>
       </c>
       <c r="E66" s="9">
-        <v>4.4000000000000004</v>
+        <v>13.2</v>
       </c>
       <c r="F66" s="9">
-        <v>1.54</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="67" spans="2:6" hidden="1">
@@ -1837,84 +1837,84 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="11">
+        <v>82.676699999999997</v>
+      </c>
+      <c r="E67" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="9">
+        <v>97.961399999999998</v>
+      </c>
+      <c r="E68" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D69" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E69" s="11">
         <v>3.5</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F69" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="12">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D70" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E70" s="13">
         <v>3.6</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F70" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="14">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C71" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D71" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E71" s="15">
         <v>3.6</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F71" s="15">
         <v>2.29</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="9">
-        <v>101.5253</v>
-      </c>
-      <c r="E70" s="9">
-        <v>3.6</v>
-      </c>
-      <c r="F70" s="9">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="11">
-        <v>101.36490000000001</v>
-      </c>
-      <c r="E71" s="11">
-        <v>3.6</v>
-      </c>
-      <c r="F71" s="11">
-        <v>1.76</v>
       </c>
     </row>
     <row r="72" spans="2:6" hidden="1">
@@ -1922,16 +1922,16 @@
         <v>2019</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" s="9">
-        <v>102.9937</v>
+        <v>101.5253</v>
       </c>
       <c r="E72" s="9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F72" s="9">
-        <v>1.71</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="73" spans="2:6" hidden="1">
@@ -1939,16 +1939,16 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D73" s="11">
-        <v>104.8749</v>
+        <v>101.36490000000001</v>
       </c>
       <c r="E73" s="11">
         <v>3.6</v>
       </c>
       <c r="F73" s="11">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="74" spans="2:6" hidden="1">
@@ -1956,16 +1956,16 @@
         <v>2019</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="9">
-        <v>101.9945</v>
+        <v>102.9937</v>
       </c>
       <c r="E74" s="9">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="F74" s="9">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="75" spans="2:6" hidden="1">
@@ -1973,16 +1973,16 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D75" s="11">
-        <v>103.92700000000001</v>
+        <v>104.8749</v>
       </c>
       <c r="E75" s="11">
         <v>3.6</v>
       </c>
       <c r="F75" s="11">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="76" spans="2:6" hidden="1">
@@ -1990,16 +1990,16 @@
         <v>2019</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="9">
-        <v>101.1883</v>
+        <v>101.9945</v>
       </c>
       <c r="E76" s="9">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F76" s="9">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="77" spans="2:6" hidden="1">
@@ -2007,16 +2007,16 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="11">
-        <v>100.631</v>
+        <v>103.92700000000001</v>
       </c>
       <c r="E77" s="11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F77" s="11">
-        <v>2</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="78" spans="2:6" hidden="1">
@@ -2024,16 +2024,16 @@
         <v>2019</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="9">
-        <v>103.0488</v>
+        <v>101.1883</v>
       </c>
       <c r="E78" s="9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="F78" s="9">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="79" spans="2:6" hidden="1">
@@ -2041,67 +2041,67 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="11">
-        <v>102.7354</v>
+        <v>100.631</v>
       </c>
       <c r="E79" s="11">
+        <v>3.7</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="9">
+        <v>103.0488</v>
+      </c>
+      <c r="E80" s="9">
         <v>3.8</v>
       </c>
-      <c r="F79" s="11">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="13">
-        <v>103.1493</v>
-      </c>
-      <c r="E80" s="13">
-        <v>4</v>
-      </c>
-      <c r="F80" s="13">
-        <v>1.55</v>
+      <c r="F80" s="9">
+        <v>1.86</v>
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1">
       <c r="B81" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" s="11">
-        <v>103.6027</v>
+        <v>102.7354</v>
       </c>
       <c r="E81" s="11">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="F81" s="11">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="9">
-        <v>103.21129999999999</v>
-      </c>
-      <c r="E82" s="9">
-        <v>3.8</v>
-      </c>
-      <c r="F82" s="9">
-        <v>2.1800000000000002</v>
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="13">
+        <v>103.1493</v>
+      </c>
+      <c r="E82" s="13">
+        <v>4</v>
+      </c>
+      <c r="F82" s="13">
+        <v>1.55</v>
       </c>
     </row>
     <row r="83" spans="2:12" hidden="1">
@@ -2109,16 +2109,16 @@
         <v>2018</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D83" s="11">
-        <v>103.49120000000001</v>
+        <v>103.6027</v>
       </c>
       <c r="E83" s="11">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F83" s="11">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1">
@@ -2126,16 +2126,16 @@
         <v>2018</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="9">
-        <v>104.57080000000001</v>
+        <v>103.21129999999999</v>
       </c>
       <c r="E84" s="9">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F84" s="9">
-        <v>2.2799999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1">
@@ -2143,16 +2143,16 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D85" s="11">
-        <v>106.0834</v>
+        <v>103.49120000000001</v>
       </c>
       <c r="E85" s="11">
         <v>3.8</v>
       </c>
       <c r="F85" s="11">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="86" spans="2:12" hidden="1">
@@ -2160,16 +2160,16 @@
         <v>2018</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="9">
-        <v>103.3622</v>
+        <v>104.57080000000001</v>
       </c>
       <c r="E86" s="9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F86" s="9">
-        <v>2.95</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="87" spans="2:12" hidden="1">
@@ -2177,16 +2177,16 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87" s="11">
-        <v>104.5796</v>
+        <v>106.0834</v>
       </c>
       <c r="E87" s="11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F87" s="11">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="88" spans="2:12" hidden="1">
@@ -2194,144 +2194,178 @@
         <v>2018</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="9">
-        <v>101.2677</v>
+        <v>103.3622</v>
       </c>
       <c r="E88" s="9">
         <v>3.8</v>
       </c>
       <c r="F88" s="9">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" hidden="1">
       <c r="B89" s="10">
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="11">
-        <v>101.85639999999999</v>
+        <v>104.5796</v>
       </c>
       <c r="E89" s="11">
         <v>4</v>
       </c>
       <c r="F89" s="11">
-        <v>2.46</v>
-      </c>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-    </row>
-    <row r="90" spans="2:12" ht="18" hidden="1" customHeight="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" hidden="1">
       <c r="B90" s="8">
         <v>2018</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="9">
-        <v>102.4751</v>
+        <v>101.2677</v>
       </c>
       <c r="E90" s="9">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="F90" s="9">
-        <v>2.36</v>
-      </c>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
       <c r="B91" s="10">
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="11">
-        <v>101.74039999999999</v>
+        <v>101.85639999999999</v>
       </c>
       <c r="E91" s="11">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F91" s="11">
-        <v>2.21</v>
+        <v>2.46</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="L91" s="16"/>
     </row>
     <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
       <c r="B92" s="8">
         <v>2018</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="9">
-        <v>101.56059999999999</v>
+        <v>102.4751</v>
       </c>
       <c r="E92" s="9">
         <v>4</v>
       </c>
       <c r="F92" s="9">
-        <v>2.0699999999999998</v>
+        <v>2.36</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
-      <c r="L92" s="16"/>
-    </row>
-    <row r="93" spans="2:12">
-      <c r="B93" s="2" t="s">
+    </row>
+    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E93" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F93" s="11">
+        <v>2.21</v>
+      </c>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="L93" s="16"/>
+    </row>
+    <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B94" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E94" s="9">
+        <v>4</v>
+      </c>
+      <c r="F94" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="L94" s="16"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="2:12">
-      <c r="B94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="16"/>
-    </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
     </row>
     <row r="96" spans="2:12">
       <c r="B96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="16"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="17" t="s">
+    <row r="99" spans="2:6">
+      <c r="B99" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="17" t="s">
+    <row r="100" spans="2:6">
+      <c r="B100" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED99FA9-7330-440B-904D-27290D89BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8360E2-2C28-4717-9538-4CF81800839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -107,10 +107,10 @@
     <t>4.16 </t>
   </si>
   <si>
-    <t xml:space="preserve"> La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
-  </si>
-  <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F94" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F94" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F95" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -706,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O101"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -779,1593 +779,1610 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1">
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2025</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
+        <v>104.5287</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2.7049023971513897</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1">
+      <c r="B6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
-        <v>105.28</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D6" s="11">
+        <v>105.3836</v>
+      </c>
+      <c r="E6" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F6" s="11">
         <v>2.6692130182223179</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1">
-      <c r="B6" s="8">
+    <row r="7" spans="2:15" s="7" customFormat="1">
+      <c r="B7" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9">
-        <v>102.723</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="9">
+        <v>102.831</v>
+      </c>
+      <c r="E7" s="9">
         <v>4.2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>2.3548965354746749</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1">
-      <c r="B7" s="10">
+    <row r="8" spans="2:15" s="7" customFormat="1">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
-        <v>102.7645</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D8" s="11">
+        <v>102.6332</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>2.3112888616734963</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1">
-      <c r="B8" s="8">
+    <row r="9" spans="2:15" s="7" customFormat="1">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
-        <v>104.2957</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="9">
+        <v>104.2259</v>
+      </c>
+      <c r="E9" s="9">
         <v>4.2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>2.3907252538964898</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="7" customFormat="1">
-      <c r="B9" s="10">
+    <row r="10" spans="2:15" s="7" customFormat="1">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11">
-        <v>104.1786</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D10" s="11">
+        <v>104.07429999999999</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>2.8215489517475079</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="7" customFormat="1">
-      <c r="B10" s="12">
+    <row r="11" spans="2:15" s="7" customFormat="1">
+      <c r="B11" s="12">
         <v>2025</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
-        <v>103.45140000000001</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="D11" s="13">
+        <v>103.4063</v>
+      </c>
+      <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>3.000483112150115</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="7" customFormat="1">
-      <c r="B11" s="10">
+    <row r="12" spans="2:15" s="7" customFormat="1">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11">
-        <v>102.6053</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D12" s="11">
+        <v>102.5835</v>
+      </c>
+      <c r="E12" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>2.8880572199800612</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="7" customFormat="1">
-      <c r="B12" s="8">
+    <row r="13" spans="2:15" s="7" customFormat="1">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>101.0591</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>4.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>2.7493803960905545</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="7" customFormat="1">
-      <c r="B13" s="10">
+    <row r="14" spans="2:15" s="7" customFormat="1">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>101.75230000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>2.5979049049146639</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="8">
+    <row r="15" spans="2:15">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>102.7617</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>2.4406330310699866</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="10">
+    <row r="16" spans="2:15">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>105.0731</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>4.2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>2.5307302964569716</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="8">
+    <row r="17" spans="2:6">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>103.01900000000001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>4.2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>2.8947531984913026</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="10">
+    <row r="18" spans="2:6">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>104.4554</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>2.9713971072633161</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8">
+    <row r="19" spans="2:6">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>3.2690290569400307</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="10">
+    <row r="20" spans="2:6">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>3.9</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>3.3573639501191646</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="8">
+    <row r="21" spans="2:6">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>3.9</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>3.4773850700380278</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="10">
+    <row r="22" spans="2:6">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>3.9</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>3.1531711208616029</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="12">
+    <row r="23" spans="2:6">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>3.7</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>3.0908847812280498</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1">
-      <c r="B23" s="14">
+    <row r="24" spans="2:6" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>3.8</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>3.3521228314302216</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="8">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>3.7</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>3.1372707088417875</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>3.9</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>3.2411446518932094</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>3.8</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>3.6996981213444364</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>3.7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>3.665112384399559</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>3.5</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>3.1777801779421764</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>3.6</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>2.9691776545588935</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>3.6</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>4.0476092727919699</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>101.804</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>3.4</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>4.9303203981889254</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="8">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>103.375</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>3.5</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>4.9849741220991683</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>3.6</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>6.0356130778665866</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>3.5</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>6.4101469688562576</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>3.5</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>6.4544013314108239</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="8">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>3.6</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>3.6</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>3.5</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>3.6</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>3.5</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>3.6</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>3.6</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>3.7</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>3.6</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>3.8</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>4</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="47" spans="2:6" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:6" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>3.9</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>4.5</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>98.75</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>4.7</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>5.4</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>5.9</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>5.8</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>6.1</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>6.1</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>6.2</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>6.4</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>6.7</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>6.7</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>6.8</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>7.8</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>8.4</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>11</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>13.2</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>14.8</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>3.5</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>3.6</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>3.6</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>3.6</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>3.6</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>3.5</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>3.6</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>3.7</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>3.6</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>3.6</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>100.631</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>3.7</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>3.8</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>3.8</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>4</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>3.9</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>3.8</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>3.8</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>3.7</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>3.8</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>3.8</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>4</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>3.8</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>4</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>2.46</v>
-      </c>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B92" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="9">
-        <v>102.4751</v>
-      </c>
-      <c r="E92" s="9">
-        <v>4</v>
-      </c>
-      <c r="F92" s="9">
-        <v>2.36</v>
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="10">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="11">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E93" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F93" s="11">
-        <v>2.21</v>
+      <c r="C93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="9">
+        <v>102.4751</v>
+      </c>
+      <c r="E93" s="9">
+        <v>4</v>
+      </c>
+      <c r="F93" s="9">
+        <v>2.36</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
-      <c r="L93" s="16"/>
     </row>
     <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="8">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="9">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E94" s="9">
-        <v>4</v>
-      </c>
-      <c r="F94" s="9">
-        <v>2.0699999999999998</v>
+      <c r="C94" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E94" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2.21</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="16"/>
+    <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B95" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E95" s="9">
+        <v>4</v>
+      </c>
+      <c r="F95" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="L95" s="16"/>
     </row>
     <row r="96" spans="2:12">
       <c r="B96" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="16"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="18" t="s">
-        <v>23</v>
+      <c r="B97" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-    </row>
-    <row r="101" spans="2:6">
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
     </row>
+    <row r="102" spans="2:6">
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E100:F100"/>
     <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Ind_Int_EEUU.xlsx
+++ b/Ind_Int_EEUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\1-Indicadores Económicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8360E2-2C28-4717-9538-4CF81800839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85E5A7-2DAE-4301-BA1A-5BD72E774F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_7" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>Tasa de desempleo</t>
   </si>
@@ -107,10 +107,10 @@
     <t>4.16 </t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t xml:space="preserve">  La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
   </si>
   <si>
-    <t xml:space="preserve">  La Tasa de inflación, Se basa en el Índice de Precios al Consumidor para todos los consumidores urbanos.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F95" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
-  <autoFilter ref="B4:F95" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}" name="Tabla1" displayName="Tabla1" ref="B4:F96" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B4:F96" xr:uid="{8FF966B1-37CC-4F2D-A294-AED5814E1855}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -706,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -779,1610 +779,1627 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="7" customFormat="1">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2025</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
+        <v>106.0004</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.9161742842984051</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="7" customFormat="1">
+      <c r="B6" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
-        <v>104.5287</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D6" s="9">
+        <v>104.3398</v>
+      </c>
+      <c r="E6" s="9">
         <v>4.2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="9">
         <v>2.7049023971513897</v>
       </c>
     </row>
-    <row r="6" spans="2:15" s="7" customFormat="1">
-      <c r="B6" s="10">
+    <row r="7" spans="2:15" s="7" customFormat="1">
+      <c r="B7" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
-        <v>105.3836</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D7" s="11">
+        <v>105.40260000000001</v>
+      </c>
+      <c r="E7" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>2.6692130182223179</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="7" customFormat="1">
-      <c r="B7" s="8">
+    <row r="8" spans="2:15" s="7" customFormat="1">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
-        <v>102.831</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D8" s="9">
+        <v>102.73869999999999</v>
+      </c>
+      <c r="E8" s="9">
         <v>4.2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>2.3548965354746749</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="7" customFormat="1">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15" s="7" customFormat="1">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11">
-        <v>102.6332</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D9" s="11">
+        <v>102.5874</v>
+      </c>
+      <c r="E9" s="11">
         <v>4.2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>2.3112888616734963</v>
       </c>
     </row>
-    <row r="9" spans="2:15" s="7" customFormat="1">
-      <c r="B9" s="8">
+    <row r="10" spans="2:15" s="7" customFormat="1">
+      <c r="B10" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
-        <v>104.2259</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D10" s="9">
+        <v>104.12479999999999</v>
+      </c>
+      <c r="E10" s="9">
         <v>4.2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>2.3907252538964898</v>
       </c>
     </row>
-    <row r="10" spans="2:15" s="7" customFormat="1">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15" s="7" customFormat="1">
+      <c r="B11" s="10">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>104.07429999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>2.8215489517475079</v>
       </c>
     </row>
-    <row r="11" spans="2:15" s="7" customFormat="1">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15" s="7" customFormat="1">
+      <c r="B12" s="12">
         <v>2025</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <v>103.4063</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>3.000483112150115</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="7" customFormat="1">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15" s="7" customFormat="1">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>102.5835</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>2.8880572199800612</v>
       </c>
     </row>
-    <row r="13" spans="2:15" s="7" customFormat="1">
-      <c r="B13" s="8">
+    <row r="14" spans="2:15" s="7" customFormat="1">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>101.0591</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>4.2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>2.7493803960905545</v>
       </c>
     </row>
-    <row r="14" spans="2:15" s="7" customFormat="1">
-      <c r="B14" s="10">
+    <row r="15" spans="2:15" s="7" customFormat="1">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>101.75230000000001</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>2.5979049049146639</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="8">
+    <row r="16" spans="2:15">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>102.7617</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>2.4406330310699866</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="10">
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>105.0731</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>4.2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>2.5307302964569716</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="8">
+    <row r="18" spans="2:6">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>103.01900000000001</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>4.2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>2.8947531984913026</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="10">
+    <row r="19" spans="2:6">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>104.4554</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>2.9713971072633161</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="8">
+    <row r="20" spans="2:6">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>101.8856</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>3.2690290569400307</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="10">
+    <row r="21" spans="2:6">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>101.4174</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>3.9</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>3.3573639501191646</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="8">
+    <row r="22" spans="2:6">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>102.7146</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>3.9</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>3.4773850700380278</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="10">
+    <row r="23" spans="2:6">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>102.74769999999999</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>3.9</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>3.1531711208616029</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="12">
+    <row r="24" spans="2:6">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>101.7062</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>3.7</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>3.0908847812280498</v>
       </c>
     </row>
-    <row r="24" spans="2:6" hidden="1">
-      <c r="B24" s="14">
+    <row r="25" spans="2:6" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>102.2236</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>3.8</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <v>3.3521228314302216</v>
       </c>
     </row>
-    <row r="25" spans="2:6" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:6" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>102.0599</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>3.7</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>3.1372707088417875</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:6" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>102.16540000000001</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>3.9</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>3.2411446518932094</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:6" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>103.2998</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>3.8</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>3.6996981213444364</v>
       </c>
     </row>
-    <row r="28" spans="2:6" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:6" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>105.14579999999999</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>3.7</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>3.665112384399559</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:6" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>103.3639</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>3.5</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>3.1777801779421764</v>
       </c>
     </row>
-    <row r="30" spans="2:6" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:6" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>103.5035</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>3.6</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>2.9691776545588935</v>
       </c>
     </row>
-    <row r="31" spans="2:6" hidden="1">
-      <c r="B31" s="8">
+    <row r="32" spans="2:6" hidden="1">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>101.90900000000001</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>3.6</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>4.0476092727919699</v>
       </c>
     </row>
-    <row r="32" spans="2:6" hidden="1">
-      <c r="B32" s="10">
+    <row r="33" spans="2:6" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>101.804</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>3.4</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>4.9303203981889254</v>
       </c>
     </row>
-    <row r="33" spans="2:6" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:6" hidden="1">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>103.375</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>3.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>4.9849741220991683</v>
       </c>
     </row>
-    <row r="34" spans="2:6" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:6" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>102.9141</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>3.6</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>6.0356130778665866</v>
       </c>
     </row>
-    <row r="35" spans="2:6" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:6" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>102.7552</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>3.5</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>6.4101469688562576</v>
       </c>
     </row>
-    <row r="36" spans="2:6" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:6" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>101.66070000000001</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>3.5</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>6.4544013314108239</v>
       </c>
     </row>
-    <row r="37" spans="2:6" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:6" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>102.4696</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>3.6</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>7.11</v>
       </c>
     </row>
-    <row r="38" spans="2:6" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:6" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>103.0849</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>3.6</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>7.75</v>
       </c>
     </row>
-    <row r="39" spans="2:6" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:6" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>103.4627</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>3.5</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="2:6" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:6" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>104.8612</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>3.6</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="41" spans="2:6" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:6" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>103.34439999999999</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>3.5</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>8.52</v>
       </c>
     </row>
-    <row r="42" spans="2:6" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:6" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>103.92619999999999</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>3.6</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>9.06</v>
       </c>
     </row>
-    <row r="43" spans="2:6" hidden="1">
-      <c r="B43" s="8">
+    <row r="44" spans="2:6" hidden="1">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>101.9909</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>3.6</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>8.58</v>
       </c>
     </row>
-    <row r="44" spans="2:6" hidden="1">
-      <c r="B44" s="10">
+    <row r="45" spans="2:6" hidden="1">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>100.8862</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>3.7</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>8.26</v>
       </c>
     </row>
-    <row r="45" spans="2:6" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:6" hidden="1">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>103.2771</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>3.6</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>8.5399999999999991</v>
       </c>
     </row>
-    <row r="46" spans="2:6" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:6" hidden="1">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>102.0634</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>3.8</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>7.87</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="18" hidden="1" customHeight="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:6" ht="18" hidden="1" customHeight="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>101.5271</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>4</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>7.48</v>
       </c>
     </row>
-    <row r="48" spans="2:6" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:6" hidden="1">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <v>100.6437</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>3.9</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>7.04</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:6" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>100.6087</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>6.81</v>
       </c>
     </row>
-    <row r="50" spans="2:6" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:6" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>100.1228</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>4.5</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>6.22</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:6" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>98.75</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>4.7</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>5.39</v>
       </c>
     </row>
-    <row r="52" spans="2:6" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:6" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>101.89190000000001</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>5.25</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:6" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>100.1131</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>5.4</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>5.37</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:6" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>100.80200000000001</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>5.9</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>5.39</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1">
-      <c r="B55" s="8">
+    <row r="56" spans="2:6" hidden="1">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>98.150300000000001</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>5.8</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>4.99</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1">
-      <c r="B56" s="10">
+    <row r="57" spans="2:6" hidden="1">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>96.961500000000001</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>6.1</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:6" hidden="1">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>98.701999999999998</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>6.1</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>2.62</v>
       </c>
     </row>
-    <row r="58" spans="2:6" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:6" hidden="1">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>95.888599999999997</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>6.2</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:6" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>98.966499999999996</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>6.4</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="2:6" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:6" hidden="1">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <v>97.869399999999999</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>6.7</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>1.36</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:6" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>96.284700000000001</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>6.7</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>1.17</v>
       </c>
     </row>
-    <row r="62" spans="2:6" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:6" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>96.455699999999993</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>6.8</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>1.18</v>
       </c>
     </row>
-    <row r="63" spans="2:6" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:6" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>95.703000000000003</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>7.8</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>1.37</v>
       </c>
     </row>
-    <row r="64" spans="2:6" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:6" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>98.2239</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>8.4</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>1.31</v>
       </c>
     </row>
-    <row r="65" spans="2:6" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:6" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>95.093900000000005</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>0.99</v>
       </c>
     </row>
-    <row r="66" spans="2:6" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:6" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>92.993700000000004</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>11</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="67" spans="2:6" hidden="1">
-      <c r="B67" s="8">
+    <row r="68" spans="2:6" hidden="1">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>84.979799999999997</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>13.2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="68" spans="2:6" hidden="1">
-      <c r="B68" s="10">
+    <row r="69" spans="2:6" hidden="1">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>82.676699999999997</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>14.8</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>0.33</v>
       </c>
     </row>
-    <row r="69" spans="2:6" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:6" hidden="1">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>97.961399999999998</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>1.54</v>
       </c>
     </row>
-    <row r="70" spans="2:6" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:6" hidden="1">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>101.9971</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>3.5</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>2.33</v>
       </c>
     </row>
-    <row r="71" spans="2:6" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:6" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>101.2492</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>3.6</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:6" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:6" hidden="1">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <v>101.7191</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>3.6</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>2.29</v>
       </c>
     </row>
-    <row r="73" spans="2:6" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:6" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>101.5253</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>3.6</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:6" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:6" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>101.36490000000001</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>3.6</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>1.76</v>
       </c>
     </row>
-    <row r="75" spans="2:6" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:6" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>102.9937</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>3.5</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>1.71</v>
       </c>
     </row>
-    <row r="76" spans="2:6" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:6" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>104.8749</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>3.6</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>1.75</v>
       </c>
     </row>
-    <row r="77" spans="2:6" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:6" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>101.9945</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>3.7</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>1.81</v>
       </c>
     </row>
-    <row r="78" spans="2:6" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:6" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>103.92700000000001</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>3.6</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>1.65</v>
       </c>
     </row>
-    <row r="79" spans="2:6" hidden="1">
-      <c r="B79" s="8">
+    <row r="80" spans="2:6" hidden="1">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>101.1883</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>3.6</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>1.79</v>
       </c>
     </row>
-    <row r="80" spans="2:6" hidden="1">
-      <c r="B80" s="10">
+    <row r="81" spans="2:12" hidden="1">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>100.631</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>3.7</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:12" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:12" hidden="1">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>103.0488</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>3.8</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>1.86</v>
       </c>
     </row>
-    <row r="82" spans="2:12" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:12" hidden="1">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>102.7354</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>3.8</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>1.52</v>
       </c>
     </row>
-    <row r="83" spans="2:12" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:12" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>103.1493</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>4</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>1.55</v>
       </c>
     </row>
-    <row r="84" spans="2:12" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:12" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>103.6027</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>3.9</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>1.91</v>
       </c>
     </row>
-    <row r="85" spans="2:12" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:12" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>103.21129999999999</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>3.8</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:12" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:12" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>103.49120000000001</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>3.8</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>2.52</v>
       </c>
     </row>
-    <row r="87" spans="2:12" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:12" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>104.57080000000001</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>3.7</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:12" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:12" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>106.0834</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>3.8</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>2.7</v>
       </c>
     </row>
-    <row r="89" spans="2:12" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:12" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>103.3622</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>3.8</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>2.95</v>
       </c>
     </row>
-    <row r="90" spans="2:12" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:12" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>104.5796</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>4</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>2.87</v>
       </c>
     </row>
-    <row r="91" spans="2:12" hidden="1">
-      <c r="B91" s="8">
+    <row r="92" spans="2:12" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>101.2677</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>3.8</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>2.8</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>101.85639999999999</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>4</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>2.46</v>
-      </c>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-    </row>
-    <row r="93" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B93" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="9">
-        <v>102.4751</v>
-      </c>
-      <c r="E93" s="9">
-        <v>4</v>
-      </c>
-      <c r="F93" s="9">
-        <v>2.36</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B94" s="10">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="11">
-        <v>101.74039999999999</v>
-      </c>
-      <c r="E94" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F94" s="11">
-        <v>2.21</v>
+      <c r="C94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="9">
+        <v>102.4751</v>
+      </c>
+      <c r="E94" s="9">
+        <v>4</v>
+      </c>
+      <c r="F94" s="9">
+        <v>2.36</v>
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="L94" s="16"/>
     </row>
     <row r="95" spans="2:12" ht="18" hidden="1" customHeight="1">
-      <c r="B95" s="8">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="9">
-        <v>101.56059999999999</v>
-      </c>
-      <c r="E95" s="9">
-        <v>4</v>
-      </c>
-      <c r="F95" s="9">
-        <v>2.0699999999999998</v>
+      <c r="C95" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="11">
+        <v>101.74039999999999</v>
+      </c>
+      <c r="E95" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F95" s="11">
+        <v>2.21</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12">
-      <c r="B96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="16"/>
+    <row r="96" spans="2:12" ht="18" hidden="1" customHeight="1">
+      <c r="B96" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="9">
+        <v>101.56059999999999</v>
+      </c>
+      <c r="E96" s="9">
+        <v>4</v>
+      </c>
+      <c r="F96" s="9">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="L96" s="16"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="18" t="s">
-        <v>24</v>
+      <c r="B98" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="2:6">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-    </row>
-    <row r="102" spans="2:6">
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
+    <row r="103" spans="2:6">
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E101:F101"/>
     <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
